--- a/doc/物资募集/物资募捐统计.xlsx
+++ b/doc/物资募集/物资募捐统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="441">
   <si>
     <t>需求机构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1475,6 +1475,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>孝感市第一人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孝感市澴川路215号孝感市第一人民医院耗材科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13177259610/冯主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用防护口罩/N95（应符合GB19083-2010）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用外科口罩（应符合YY0469-2010）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性医用口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护服（应符合GB19082-2003《医用一次性防护服技术要求》）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防冲击眼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护面罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄石有色医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用防护口罩/N95（应符合GB19083-2010）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省黄石市下陆区新下陆街228号黄石有色医院保障部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13597721429/蔡老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用外科口罩（应符合YY0469-2011）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18995807852/张老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性医用口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护服（应符合GB19082-2009《医用一次性防护服技术要求》）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防冲击眼罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护面罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防污染鞋套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳新县人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳新县兴国镇儒学路81号设备科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13669042989/周理河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用一次性乳胶手套（应符合GB10213-2006）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜/防护眼镜（视野开阔，有弹力佩戴，具备防溅功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性使用手术衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸宁市中心医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省咸宁市咸安区金桂路228号咸宁市中心医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13997502572/毛老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用外科口罩（应符合YY0469-2010）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13872192920/吴老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护服（应符合GB19082-2003《医用一次性防护服技术要求》）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄梅县人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省黄梅县五祖大道137号黄梅县人民医院药剂科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13972717079/梅泽文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13476768682/戴立东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75%酒精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手部皮肤消毒液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84消毒液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查手套（乳胶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过氧乙酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用鞋套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用防护雨靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟祥市人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省钟祥市南湖原种场祥云大道19号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0724-4223634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>襄阳市中心医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1507,6 +1727,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>护目镜/防护眼镜（视野开阔，有弹力佩戴，具备防溅功能）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1527,223 +1751,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孝感市第一人民医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护目镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孝感市澴川路215号孝感市第一人民医院耗材科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13177259610/冯主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用防护口罩/N95（应符合GB19083-2010）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用外科口罩（应符合YY0469-2010）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性医用口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防护服（应符合GB19082-2003《医用一次性防护服技术要求》）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防冲击眼罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防护面罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄石有色医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用防护口罩/N95（应符合GB19083-2010）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省黄石市下陆区新下陆街228号黄石有色医院保障部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13597721429/蔡老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用外科口罩（应符合YY0469-2011）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18995807852/张老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护目镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性医用口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防护服（应符合GB19082-2009《医用一次性防护服技术要求》）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用帽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手术衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防冲击眼罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防护面罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防污染鞋套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳新县人民医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳新县兴国镇儒学路81号设备科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13669042989/周理河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用一次性乳胶手套（应符合GB10213-2006）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护目镜/防护眼镜（视野开阔，有弹力佩戴，具备防溅功能）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用帽子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性使用手术衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸宁市中心医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省咸宁市咸安区金桂路228号咸宁市中心医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13997502572/毛老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用外科口罩（应符合YY0469-2010）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13872192920/吴老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防护服（应符合GB19082-2003《医用一次性防护服技术要求》）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄梅县人民医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省黄梅县五祖大道137号黄梅县人民医院药剂科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13972717079/梅泽文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13476768682/戴立东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75%酒精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手部皮肤消毒液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84消毒液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查手套（乳胶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过氧乙酸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用鞋套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医用防护雨靴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟祥市人民医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省钟祥市南湖原种场祥云大道19号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0724-4223634</t>
+    <t>襄阳市中医医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用防护口罩（应符合GB19083-2010）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省襄阳市樊城区长征路24号襄阳市中医医院医务处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护服（应符合GB19082-2009）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋套/靴套（防水、防渗透、防滑，不能使用无纺布鞋套）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护目镜（防霾型护目镜）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面屏（材质轻便，容易消毒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,7 +1843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1848,29 +1880,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2176,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F454"/>
+  <dimension ref="A1:F461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="C422" sqref="C422"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="C290" sqref="A290:XFD297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2214,10 +2252,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -2226,7 +2264,7 @@
       <c r="D2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="20" t="s">
         <v>177</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2234,86 +2272,86 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="10" t="s">
         <v>361</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="10" t="s">
         <v>363</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="10" t="s">
         <v>356</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="10" t="s">
         <v>364</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="10" t="s">
         <v>357</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10" t="s">
         <v>358</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="10" t="s">
         <v>359</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="20">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2322,7 +2360,7 @@
       <c r="D10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>183</v>
       </c>
       <c r="F10" t="s">
@@ -2330,114 +2368,114 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="16"/>
       <c r="F11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="10" t="s">
         <v>186</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="16"/>
       <c r="F12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="10" t="s">
         <v>362</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="16"/>
       <c r="F13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="16"/>
       <c r="F14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="10" t="s">
         <v>360</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="16"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="16"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="16"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="16"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="20">
         <v>3</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2446,7 +2484,7 @@
       <c r="D19" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="16" t="s">
         <v>196</v>
       </c>
       <c r="F19" t="s">
@@ -2454,96 +2492,96 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="10" t="s">
         <v>198</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="16"/>
       <c r="F20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="16"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="10" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="16"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="16"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="16"/>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="20">
         <v>4</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>201</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2552,7 +2590,7 @@
       <c r="D27" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="16" t="s">
         <v>202</v>
       </c>
       <c r="F27" t="s">
@@ -2560,96 +2598,96 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="16"/>
       <c r="F28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="16"/>
       <c r="F29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="10" t="s">
         <v>200</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="16"/>
       <c r="F30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="16"/>
       <c r="F31"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="16"/>
       <c r="F32"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="16"/>
       <c r="F33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="10" t="s">
         <v>208</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E34" s="14"/>
+      <c r="E34" s="16"/>
       <c r="F34"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="10" t="s">
         <v>210</v>
       </c>
@@ -2660,10 +2698,10 @@
       <c r="F35"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="20">
         <v>5</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>211</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -2672,7 +2710,7 @@
       <c r="D36" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="16" t="s">
         <v>213</v>
       </c>
       <c r="F36" t="s">
@@ -2680,94 +2718,94 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="16"/>
       <c r="F37" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="16"/>
       <c r="F38"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="10" t="s">
         <v>218</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="14"/>
+      <c r="E39" s="16"/>
       <c r="F39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="16"/>
       <c r="F40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="14"/>
+      <c r="E41" s="16"/>
       <c r="F41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="16"/>
       <c r="F42"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="10" t="s">
         <v>222</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="16"/>
       <c r="F43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="10" t="s">
         <v>223</v>
       </c>
@@ -2778,10 +2816,10 @@
       <c r="F44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>6</v>
-      </c>
-      <c r="B45" s="14" t="s">
+      <c r="A45" s="20">
+        <v>6</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>224</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -2790,7 +2828,7 @@
       <c r="D45" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="16" t="s">
         <v>225</v>
       </c>
       <c r="F45" t="s">
@@ -2798,98 +2836,98 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E46" s="14"/>
+      <c r="E46" s="16"/>
       <c r="F46" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="16"/>
       <c r="F47" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="10" t="s">
         <v>218</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="14"/>
+      <c r="E48" s="16"/>
       <c r="F48"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="14"/>
+      <c r="E49" s="16"/>
       <c r="F49"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="10" t="s">
         <v>229</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="16"/>
       <c r="F50"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="16"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="16"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
+      <c r="A53" s="20">
         <v>7</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -2898,7 +2936,7 @@
       <c r="D53" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="16" t="s">
         <v>234</v>
       </c>
       <c r="F53" t="s">
@@ -2906,98 +2944,98 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="10" t="s">
         <v>236</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="16"/>
       <c r="F54" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="16"/>
       <c r="F55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="16"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="16"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="16"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="16"/>
       <c r="F59"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="16"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
+      <c r="A61" s="20">
         <v>8</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="16" t="s">
         <v>241</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -3006,7 +3044,7 @@
       <c r="D61" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="16" t="s">
         <v>243</v>
       </c>
       <c r="F61" t="s">
@@ -3014,88 +3052,88 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="10" t="s">
         <v>245</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E62" s="14"/>
+      <c r="E62" s="16"/>
       <c r="F62" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="16"/>
       <c r="F63" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="10" t="s">
         <v>249</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="16"/>
       <c r="F64" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="10" t="s">
         <v>251</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="14"/>
+      <c r="E65" s="16"/>
       <c r="F65"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E66" s="14"/>
+      <c r="E66" s="16"/>
       <c r="F66"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="16"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+      <c r="A68" s="20">
         <v>9</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>254</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -3104,7 +3142,7 @@
       <c r="D68" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="16" t="s">
         <v>255</v>
       </c>
       <c r="F68" t="s">
@@ -3112,110 +3150,110 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E69" s="14"/>
+      <c r="E69" s="16"/>
       <c r="F69" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="10" t="s">
         <v>259</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="16"/>
       <c r="F70" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="16"/>
       <c r="F71"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="16"/>
       <c r="F72"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="16"/>
       <c r="F73"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E74" s="14"/>
+      <c r="E74" s="16"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="16"/>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="16"/>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="A77" s="20">
         <v>10</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="16" t="s">
         <v>263</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -3224,7 +3262,7 @@
       <c r="D77" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="16" t="s">
         <v>265</v>
       </c>
       <c r="F77" t="s">
@@ -3232,132 +3270,132 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="10" t="s">
         <v>259</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="16"/>
       <c r="F78" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="16"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E80" s="14"/>
+      <c r="E80" s="16"/>
       <c r="F80"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="10" t="s">
         <v>269</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="14"/>
+      <c r="E81" s="16"/>
       <c r="F81"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E82" s="14"/>
+      <c r="E82" s="16"/>
       <c r="F82"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E83" s="14"/>
+      <c r="E83" s="16"/>
       <c r="F83"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E84" s="14"/>
+      <c r="E84" s="16"/>
       <c r="F84"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E85" s="14"/>
+      <c r="E85" s="16"/>
       <c r="F85"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="10" t="s">
         <v>270</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E86" s="14"/>
+      <c r="E86" s="16"/>
       <c r="F86"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E87" s="14"/>
+      <c r="E87" s="16"/>
       <c r="F87"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="A88" s="20">
         <v>11</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="16" t="s">
         <v>272</v>
       </c>
       <c r="C88" s="10" t="s">
@@ -3366,7 +3404,7 @@
       <c r="D88" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="16" t="s">
         <v>273</v>
       </c>
       <c r="F88" t="s">
@@ -3374,92 +3412,92 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="10" t="s">
         <v>275</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="16"/>
       <c r="F89"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="10" t="s">
         <v>259</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E90" s="14"/>
+      <c r="E90" s="16"/>
       <c r="F90"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" s="16"/>
       <c r="F91"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="14"/>
+      <c r="E92" s="16"/>
       <c r="F92"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="14"/>
+      <c r="E93" s="16"/>
       <c r="F93"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E94" s="14"/>
+      <c r="E94" s="16"/>
       <c r="F94"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E95" s="14"/>
+      <c r="E95" s="16"/>
       <c r="F95"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="14"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="10" t="s">
         <v>219</v>
       </c>
@@ -3470,10 +3508,10 @@
       <c r="F96"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
+      <c r="A97" s="20">
         <v>12</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="16" t="s">
         <v>276</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -3482,7 +3520,7 @@
       <c r="D97" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="16" t="s">
         <v>278</v>
       </c>
       <c r="F97" t="s">
@@ -3490,84 +3528,84 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="14"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E98" s="14"/>
+      <c r="E98" s="16"/>
       <c r="F98" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="14"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E99" s="14"/>
+      <c r="E99" s="16"/>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="14"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E100" s="14"/>
+      <c r="E100" s="16"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E101" s="14"/>
+      <c r="E101" s="16"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="14"/>
+      <c r="E102" s="16"/>
       <c r="F102"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E103" s="14"/>
+      <c r="E103" s="16"/>
       <c r="F103"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
+      <c r="A104" s="20">
         <v>13</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="16" t="s">
         <v>282</v>
       </c>
       <c r="C104" s="10" t="s">
@@ -3584,8 +3622,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="10" t="s">
         <v>285</v>
       </c>
@@ -3600,46 +3638,46 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="14"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="10" t="s">
         <v>288</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E106" s="14"/>
+      <c r="E106" s="16"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="14"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E107" s="14"/>
+      <c r="E107" s="16"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E108" s="14"/>
+      <c r="E108" s="16"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
+      <c r="A109" s="20">
         <v>14</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="16" t="s">
         <v>289</v>
       </c>
       <c r="C109" s="10" t="s">
@@ -3648,7 +3686,7 @@
       <c r="D109" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="16" t="s">
         <v>290</v>
       </c>
       <c r="F109" t="s">
@@ -3656,82 +3694,82 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="14"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="10" t="s">
         <v>292</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E110" s="14"/>
+      <c r="E110" s="16"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="14"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E111" s="14"/>
+      <c r="E111" s="16"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="10" t="s">
         <v>294</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E112" s="14"/>
+      <c r="E112" s="16"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="14"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="10" t="s">
         <v>295</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E113" s="14"/>
+      <c r="E113" s="16"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="14"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E114" s="14"/>
+      <c r="E114" s="16"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="14"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E115" s="14"/>
+      <c r="E115" s="16"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
+      <c r="A116" s="20">
         <v>15</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="16" t="s">
         <v>296</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -3748,8 +3786,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="10" t="s">
         <v>293</v>
       </c>
@@ -3762,82 +3800,82 @@
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="14"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E118" s="14"/>
+      <c r="E118" s="16"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="10" t="s">
         <v>300</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E119" s="14"/>
+      <c r="E119" s="16"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="10" t="s">
         <v>301</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E120" s="14"/>
+      <c r="E120" s="16"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="14"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E121" s="14"/>
+      <c r="E121" s="16"/>
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="10" t="s">
         <v>302</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E122" s="14"/>
+      <c r="E122" s="16"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="14"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E123" s="14"/>
+      <c r="E123" s="16"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
+      <c r="A124" s="20">
         <v>16</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="16" t="s">
         <v>303</v>
       </c>
       <c r="C124" s="10" t="s">
@@ -3846,7 +3884,7 @@
       <c r="D124" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="16" t="s">
         <v>305</v>
       </c>
       <c r="F124" t="s">
@@ -3854,86 +3892,86 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="B125" s="14"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="10" t="s">
         <v>307</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E125" s="14"/>
+      <c r="E125" s="16"/>
       <c r="F125" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="10" t="s">
         <v>309</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E126" s="14"/>
+      <c r="E126" s="16"/>
       <c r="F126" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="14"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E127" s="14"/>
+      <c r="E127" s="16"/>
       <c r="F127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="14"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="10" t="s">
         <v>277</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E128" s="14"/>
+      <c r="E128" s="16"/>
       <c r="F128"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="14"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E129" s="14"/>
+      <c r="E129" s="16"/>
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="10" t="s">
         <v>311</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E130" s="14"/>
+      <c r="E130" s="16"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="13">
+      <c r="A131" s="20">
         <v>17</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="16" t="s">
         <v>312</v>
       </c>
       <c r="C131" s="10" t="s">
@@ -3942,7 +3980,7 @@
       <c r="D131" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E131" s="14" t="s">
+      <c r="E131" s="16" t="s">
         <v>313</v>
       </c>
       <c r="F131" t="s">
@@ -3950,96 +3988,96 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="10" t="s">
         <v>304</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E132" s="14"/>
+      <c r="E132" s="16"/>
       <c r="F132" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="14"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E133" s="14"/>
+      <c r="E133" s="16"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
-      <c r="B134" s="14"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="10" t="s">
         <v>294</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E134" s="14"/>
+      <c r="E134" s="16"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
-      <c r="B135" s="14"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="10" t="s">
         <v>295</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E135" s="14"/>
+      <c r="E135" s="16"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
-      <c r="B136" s="14"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E136" s="14"/>
+      <c r="E136" s="16"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
-      <c r="B137" s="14"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E137" s="14"/>
+      <c r="E137" s="16"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
-      <c r="B138" s="14"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="10" t="s">
         <v>316</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E138" s="14"/>
+      <c r="E138" s="16"/>
       <c r="F138"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="13">
+      <c r="A139" s="20">
         <v>18</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="16" t="s">
         <v>317</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -4048,7 +4086,7 @@
       <c r="D139" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E139" s="14" t="s">
+      <c r="E139" s="16" t="s">
         <v>318</v>
       </c>
       <c r="F139" t="s">
@@ -4056,124 +4094,124 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
-      <c r="B140" s="14"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="10" t="s">
         <v>320</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E140" s="14"/>
+      <c r="E140" s="16"/>
       <c r="F140" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="14"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="10" t="s">
         <v>322</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E141" s="14"/>
+      <c r="E141" s="16"/>
       <c r="F141" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
-      <c r="B142" s="14"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="14"/>
+      <c r="E142" s="16"/>
       <c r="F142" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="14"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="10" t="s">
         <v>295</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="14"/>
+      <c r="E143" s="16"/>
       <c r="F143"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
-      <c r="B144" s="14"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="10" t="s">
         <v>325</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E144" s="14"/>
+      <c r="E144" s="16"/>
       <c r="F144"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="14"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="10" t="s">
         <v>316</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E145" s="14"/>
+      <c r="E145" s="16"/>
       <c r="F145"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="14"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E146" s="14"/>
+      <c r="E146" s="16"/>
       <c r="F146"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
-      <c r="B147" s="14"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="10" t="s">
         <v>326</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E147" s="14"/>
+      <c r="E147" s="16"/>
       <c r="F147"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
-      <c r="B148" s="14"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="10" t="s">
         <v>327</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E148" s="14"/>
+      <c r="E148" s="16"/>
       <c r="F148"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="13">
+      <c r="A149" s="20">
         <v>19</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="16" t="s">
         <v>328</v>
       </c>
       <c r="C149" s="10" t="s">
@@ -4182,7 +4220,7 @@
       <c r="D149">
         <v>100000</v>
       </c>
-      <c r="E149" s="14" t="s">
+      <c r="E149" s="16" t="s">
         <v>330</v>
       </c>
       <c r="F149" t="s">
@@ -4190,94 +4228,94 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
-      <c r="B150" s="14"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="10" t="s">
         <v>332</v>
       </c>
       <c r="D150">
         <v>10000</v>
       </c>
-      <c r="E150" s="14"/>
+      <c r="E150" s="16"/>
       <c r="F150"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
-      <c r="B151" s="14"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="10" t="s">
         <v>333</v>
       </c>
       <c r="D151">
         <v>200000</v>
       </c>
-      <c r="E151" s="14"/>
+      <c r="E151" s="16"/>
       <c r="F151"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="14"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D152">
         <v>1000</v>
       </c>
-      <c r="E152" s="14"/>
+      <c r="E152" s="16"/>
       <c r="F152"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
-      <c r="B153" s="14"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D153">
         <v>1000</v>
       </c>
-      <c r="E153" s="14"/>
+      <c r="E153" s="16"/>
       <c r="F153"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
-      <c r="B154" s="14"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="10" t="s">
         <v>334</v>
       </c>
       <c r="D154">
         <v>1000</v>
       </c>
-      <c r="E154" s="14"/>
+      <c r="E154" s="16"/>
       <c r="F154"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
-      <c r="B155" s="14"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="10" t="s">
         <v>335</v>
       </c>
       <c r="D155">
         <v>1000</v>
       </c>
-      <c r="E155" s="14"/>
+      <c r="E155" s="16"/>
       <c r="F155"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
-      <c r="B156" s="14"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="10" t="s">
         <v>336</v>
       </c>
       <c r="D156">
         <v>10000</v>
       </c>
-      <c r="E156" s="14"/>
+      <c r="E156" s="16"/>
       <c r="F156"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="13">
+      <c r="A157" s="20">
         <v>20</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="16" t="s">
         <v>337</v>
       </c>
       <c r="C157" s="10" t="s">
@@ -4286,7 +4324,7 @@
       <c r="D157" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E157" s="14" t="s">
+      <c r="E157" s="16" t="s">
         <v>339</v>
       </c>
       <c r="F157" s="10" t="s">
@@ -4294,36 +4332,36 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="13"/>
-      <c r="B158" s="14"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="10" t="s">
         <v>341</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E158" s="14"/>
+      <c r="E158" s="16"/>
       <c r="F158" s="10" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
-      <c r="B159" s="14"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="10" t="s">
         <v>343</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E159" s="14"/>
+      <c r="E159" s="16"/>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="13">
+      <c r="A160" s="20">
         <v>21</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="16" t="s">
         <v>344</v>
       </c>
       <c r="C160" s="10" t="s">
@@ -4332,7 +4370,7 @@
       <c r="D160" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="16" t="s">
         <v>345</v>
       </c>
       <c r="F160" t="s">
@@ -4340,134 +4378,134 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
-      <c r="B161" s="14"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E161" s="14"/>
+      <c r="E161" s="16"/>
       <c r="F161" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="13"/>
-      <c r="B162" s="14"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="10" t="s">
         <v>348</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E162" s="14"/>
+      <c r="E162" s="16"/>
       <c r="F162" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
-      <c r="B163" s="14"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="10" t="s">
         <v>350</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E163" s="14"/>
+      <c r="E163" s="16"/>
       <c r="F163"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
-      <c r="B164" s="14"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E164" s="14"/>
+      <c r="E164" s="16"/>
       <c r="F164"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
-      <c r="B165" s="14"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="10" t="s">
         <v>343</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E165" s="14"/>
+      <c r="E165" s="16"/>
       <c r="F165"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
-      <c r="B166" s="14"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E166" s="14"/>
+      <c r="E166" s="16"/>
       <c r="F166"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
-      <c r="B167" s="14"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E167" s="14"/>
+      <c r="E167" s="16"/>
       <c r="F167"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E168" s="14"/>
+      <c r="E168" s="16"/>
       <c r="F168"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
-      <c r="B169" s="14"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="10" t="s">
         <v>351</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E169" s="14"/>
+      <c r="E169" s="16"/>
       <c r="F169"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="14"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="10" t="s">
         <v>341</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E170" s="14"/>
+      <c r="E170" s="16"/>
       <c r="F170"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="13">
+      <c r="A171" s="20">
         <v>22</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="16" t="s">
         <v>352</v>
       </c>
       <c r="C171" s="10" t="s">
@@ -4476,7 +4514,7 @@
       <c r="D171" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E171" s="16" t="s">
         <v>353</v>
       </c>
       <c r="F171" t="s">
@@ -4484,118 +4522,118 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="14"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="10" t="s">
         <v>292</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E172" s="14"/>
+      <c r="E172" s="16"/>
       <c r="F172"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="14"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E173" s="14"/>
+      <c r="E173" s="16"/>
       <c r="F173"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="14"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E174" s="14"/>
+      <c r="E174" s="16"/>
       <c r="F174"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="14"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="10" t="s">
         <v>355</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E175" s="14"/>
+      <c r="E175" s="16"/>
       <c r="F175"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
-      <c r="B176" s="14"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E176" s="14"/>
+      <c r="E176" s="16"/>
       <c r="F176"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
-      <c r="B177" s="14"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E177" s="14"/>
+      <c r="E177" s="16"/>
       <c r="F177"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="14"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="10" t="s">
         <v>316</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E178" s="14"/>
+      <c r="E178" s="16"/>
       <c r="F178"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="14"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="10" t="s">
         <v>301</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E179" s="14"/>
+      <c r="E179" s="16"/>
       <c r="F179"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
-      <c r="B180" s="14"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E180" s="14"/>
+      <c r="E180" s="16"/>
       <c r="F180"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="13">
+      <c r="A181" s="20">
         <v>23</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C181" s="9" t="s">
@@ -4604,7 +4642,7 @@
       <c r="D181" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E181" s="13" t="s">
+      <c r="E181" s="20" t="s">
         <v>74</v>
       </c>
       <c r="F181" s="9" t="s">
@@ -4612,84 +4650,84 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
-      <c r="B182" s="13"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E182" s="13"/>
+      <c r="E182" s="20"/>
       <c r="F182" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
-      <c r="B183" s="13"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E183" s="13"/>
+      <c r="E183" s="20"/>
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
-      <c r="B184" s="13"/>
+      <c r="A184" s="20"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E184" s="13"/>
+      <c r="E184" s="20"/>
       <c r="F184" s="9"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13"/>
+      <c r="A185" s="20"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E185" s="13"/>
+      <c r="E185" s="20"/>
       <c r="F185" s="9"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E186" s="13"/>
+      <c r="E186" s="20"/>
       <c r="F186" s="9"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E187" s="13"/>
+      <c r="E187" s="20"/>
       <c r="F187" s="9"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="13">
+      <c r="A188" s="20">
         <v>24</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C188" s="9" t="s">
@@ -4698,7 +4736,7 @@
       <c r="D188" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="E188" s="20" t="s">
         <v>86</v>
       </c>
       <c r="F188" s="9" t="s">
@@ -4706,108 +4744,108 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="13"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E189" s="13"/>
+      <c r="E189" s="20"/>
       <c r="F189" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="13"/>
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E190" s="13"/>
+      <c r="E190" s="20"/>
       <c r="F190" s="9"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="13"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E191" s="13"/>
+      <c r="E191" s="20"/>
       <c r="F191" s="9"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="13"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E192" s="13"/>
+      <c r="E192" s="20"/>
       <c r="F192" s="9"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13"/>
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E193" s="13"/>
+      <c r="E193" s="20"/>
       <c r="F193" s="9"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E194" s="13"/>
+      <c r="E194" s="20"/>
       <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13"/>
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E195" s="13"/>
+      <c r="E195" s="20"/>
       <c r="F195" s="9"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E196" s="13"/>
+      <c r="E196" s="20"/>
       <c r="F196" s="9"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="13">
+      <c r="A197" s="20">
         <v>25</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C197" s="9" t="s">
@@ -4816,7 +4854,7 @@
       <c r="D197" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E197" s="13" t="s">
+      <c r="E197" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F197" s="9" t="s">
@@ -4824,108 +4862,108 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E198" s="13"/>
+      <c r="E198" s="20"/>
       <c r="F198" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="13"/>
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E199" s="13"/>
+      <c r="E199" s="20"/>
       <c r="F199" s="9"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13"/>
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E200" s="13"/>
+      <c r="E200" s="20"/>
       <c r="F200" s="9"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="13"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E201" s="13"/>
+      <c r="E201" s="20"/>
       <c r="F201" s="9"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="13"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E202" s="13"/>
+      <c r="E202" s="20"/>
       <c r="F202" s="9"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
-      <c r="B203" s="13"/>
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E203" s="13"/>
+      <c r="E203" s="20"/>
       <c r="F203" s="9"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="13"/>
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E204" s="13"/>
+      <c r="E204" s="20"/>
       <c r="F204" s="9"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
-      <c r="B205" s="13"/>
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E205" s="13"/>
+      <c r="E205" s="20"/>
       <c r="F205" s="9"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="13">
+      <c r="A206" s="20">
         <v>26</v>
       </c>
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C206" s="9" t="s">
@@ -4934,7 +4972,7 @@
       <c r="D206" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E206" s="15" t="s">
+      <c r="E206" s="22" t="s">
         <v>107</v>
       </c>
       <c r="F206" s="9" t="s">
@@ -4942,96 +4980,96 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="13"/>
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E207" s="15"/>
+      <c r="E207" s="22"/>
       <c r="F207" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
-      <c r="B208" s="13"/>
+      <c r="A208" s="20"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E208" s="15"/>
+      <c r="E208" s="22"/>
       <c r="F208" s="9"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
-      <c r="B209" s="13"/>
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E209" s="15"/>
+      <c r="E209" s="22"/>
       <c r="F209" s="9"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="13"/>
+      <c r="A210" s="20"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E210" s="15"/>
+      <c r="E210" s="22"/>
       <c r="F210" s="9"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
-      <c r="B211" s="13"/>
+      <c r="A211" s="20"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E211" s="15"/>
+      <c r="E211" s="22"/>
       <c r="F211" s="9"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
-      <c r="B212" s="13"/>
+      <c r="A212" s="20"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E212" s="15"/>
+      <c r="E212" s="22"/>
       <c r="F212" s="9"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
-      <c r="B213" s="13"/>
+      <c r="A213" s="20"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E213" s="15"/>
+      <c r="E213" s="22"/>
       <c r="F213" s="9"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="13">
+      <c r="A214" s="20">
         <v>27</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B214" s="20" t="s">
         <v>115</v>
       </c>
       <c r="C214" s="9" t="s">
@@ -5040,7 +5078,7 @@
       <c r="D214" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E214" s="15" t="s">
+      <c r="E214" s="22" t="s">
         <v>116</v>
       </c>
       <c r="F214" s="9" t="s">
@@ -5048,106 +5086,106 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
-      <c r="B215" s="13"/>
+      <c r="A215" s="20"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E215" s="15"/>
+      <c r="E215" s="22"/>
       <c r="F215" s="9"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="13"/>
+      <c r="A216" s="20"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E216" s="15"/>
+      <c r="E216" s="22"/>
       <c r="F216" s="9"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="13"/>
-      <c r="B217" s="13"/>
+      <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E217" s="15"/>
+      <c r="E217" s="22"/>
       <c r="F217" s="9"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
-      <c r="B218" s="13"/>
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E218" s="15"/>
+      <c r="E218" s="22"/>
       <c r="F218" s="9"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="13"/>
-      <c r="B219" s="13"/>
+      <c r="A219" s="20"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E219" s="15"/>
+      <c r="E219" s="22"/>
       <c r="F219" s="9"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
-      <c r="B220" s="13"/>
+      <c r="A220" s="20"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E220" s="15"/>
+      <c r="E220" s="22"/>
       <c r="F220" s="9"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="13"/>
-      <c r="B221" s="13"/>
+      <c r="A221" s="20"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E221" s="15"/>
+      <c r="E221" s="22"/>
       <c r="F221" s="9"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
-      <c r="B222" s="13"/>
+      <c r="A222" s="20"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E222" s="15"/>
+      <c r="E222" s="22"/>
       <c r="F222" s="9"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="13">
+      <c r="A223" s="20">
         <v>28</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="B223" s="20" t="s">
         <v>118</v>
       </c>
       <c r="C223" s="9" t="s">
@@ -5156,7 +5194,7 @@
       <c r="D223" s="9">
         <v>5000</v>
       </c>
-      <c r="E223" s="15" t="s">
+      <c r="E223" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F223" s="9" t="s">
@@ -5164,84 +5202,84 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="13"/>
-      <c r="B224" s="13"/>
+      <c r="A224" s="20"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D224" s="9">
         <v>20000</v>
       </c>
-      <c r="E224" s="15"/>
+      <c r="E224" s="22"/>
       <c r="F224" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
-      <c r="B225" s="13"/>
+      <c r="A225" s="20"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D225" s="9">
         <v>20000</v>
       </c>
-      <c r="E225" s="15"/>
+      <c r="E225" s="22"/>
       <c r="F225" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
-      <c r="B226" s="13"/>
+      <c r="A226" s="20"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D226" s="9">
         <v>5000</v>
       </c>
-      <c r="E226" s="15"/>
+      <c r="E226" s="22"/>
       <c r="F226" s="9"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="13"/>
-      <c r="B227" s="13"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D227" s="9">
         <v>20000</v>
       </c>
-      <c r="E227" s="15"/>
+      <c r="E227" s="22"/>
       <c r="F227" s="9"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
-      <c r="B228" s="13"/>
+      <c r="A228" s="20"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D228" s="9">
         <v>10000</v>
       </c>
-      <c r="E228" s="15"/>
+      <c r="E228" s="22"/>
       <c r="F228" s="9"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="13"/>
-      <c r="B229" s="13"/>
+      <c r="A229" s="20"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D229" s="9"/>
-      <c r="E229" s="15"/>
+      <c r="E229" s="22"/>
       <c r="F229" s="9"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="13">
+      <c r="A230" s="20">
         <v>29</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="B230" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C230" s="9" t="s">
@@ -5250,7 +5288,7 @@
       <c r="D230" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E230" s="15" t="s">
+      <c r="E230" s="22" t="s">
         <v>130</v>
       </c>
       <c r="F230" s="9" t="s">
@@ -5258,108 +5296,108 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
-      <c r="B231" s="13"/>
+      <c r="A231" s="20"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E231" s="15"/>
+      <c r="E231" s="22"/>
       <c r="F231" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
-      <c r="B232" s="13"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E232" s="15"/>
+      <c r="E232" s="22"/>
       <c r="F232" s="9"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="13"/>
-      <c r="B233" s="13"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E233" s="15"/>
+      <c r="E233" s="22"/>
       <c r="F233" s="9"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
+      <c r="A234" s="20"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E234" s="15"/>
+      <c r="E234" s="22"/>
       <c r="F234" s="9"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="13"/>
-      <c r="B235" s="13"/>
+      <c r="A235" s="20"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E235" s="15"/>
+      <c r="E235" s="22"/>
       <c r="F235" s="9"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="13"/>
-      <c r="B236" s="13"/>
+      <c r="A236" s="20"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E236" s="15"/>
+      <c r="E236" s="22"/>
       <c r="F236" s="9"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="13"/>
-      <c r="B237" s="13"/>
+      <c r="A237" s="20"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E237" s="15"/>
+      <c r="E237" s="22"/>
       <c r="F237" s="9"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
-      <c r="B238" s="13"/>
+      <c r="A238" s="20"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E238" s="15"/>
+      <c r="E238" s="22"/>
       <c r="F238" s="9"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="13">
+      <c r="A239" s="20">
         <v>30</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B239" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C239" s="9" t="s">
@@ -5368,7 +5406,7 @@
       <c r="D239" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E239" s="13" t="s">
+      <c r="E239" s="20" t="s">
         <v>134</v>
       </c>
       <c r="F239" s="9" t="s">
@@ -5376,106 +5414,106 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
-      <c r="B240" s="13"/>
+      <c r="A240" s="20"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E240" s="13"/>
+      <c r="E240" s="20"/>
       <c r="F240" s="9"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="13"/>
-      <c r="B241" s="13"/>
+      <c r="A241" s="20"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E241" s="13"/>
+      <c r="E241" s="20"/>
       <c r="F241" s="9"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="13"/>
-      <c r="B242" s="13"/>
+      <c r="A242" s="20"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E242" s="13"/>
+      <c r="E242" s="20"/>
       <c r="F242" s="9"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="13"/>
-      <c r="B243" s="13"/>
+      <c r="A243" s="20"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E243" s="13"/>
+      <c r="E243" s="20"/>
       <c r="F243" s="9"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="13"/>
-      <c r="B244" s="13"/>
+      <c r="A244" s="20"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E244" s="13"/>
+      <c r="E244" s="20"/>
       <c r="F244" s="9"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="13"/>
-      <c r="B245" s="13"/>
+      <c r="A245" s="20"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E245" s="13"/>
+      <c r="E245" s="20"/>
       <c r="F245" s="9"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
-      <c r="B246" s="13"/>
+      <c r="A246" s="20"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E246" s="13"/>
+      <c r="E246" s="20"/>
       <c r="F246" s="9"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="13"/>
-      <c r="B247" s="13"/>
+      <c r="A247" s="20"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E247" s="13"/>
+      <c r="E247" s="20"/>
       <c r="F247" s="9"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="13">
+      <c r="A248" s="20">
         <v>31</v>
       </c>
-      <c r="B248" s="13" t="s">
+      <c r="B248" s="20" t="s">
         <v>136</v>
       </c>
       <c r="C248" s="9" t="s">
@@ -5484,7 +5522,7 @@
       <c r="D248" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E248" s="13" t="s">
+      <c r="E248" s="20" t="s">
         <v>137</v>
       </c>
       <c r="F248" s="9" t="s">
@@ -5492,96 +5530,96 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
-      <c r="B249" s="13"/>
+      <c r="A249" s="20"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E249" s="13"/>
+      <c r="E249" s="20"/>
       <c r="F249" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="13"/>
-      <c r="B250" s="13"/>
+      <c r="A250" s="20"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E250" s="13"/>
+      <c r="E250" s="20"/>
       <c r="F250" s="9"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
-      <c r="B251" s="13"/>
+      <c r="A251" s="20"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E251" s="13"/>
+      <c r="E251" s="20"/>
       <c r="F251" s="9"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="13"/>
-      <c r="B252" s="13"/>
+      <c r="A252" s="20"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E252" s="13"/>
+      <c r="E252" s="20"/>
       <c r="F252" s="9"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="13"/>
-      <c r="B253" s="13"/>
+      <c r="A253" s="20"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E253" s="13"/>
+      <c r="E253" s="20"/>
       <c r="F253" s="9"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="13"/>
-      <c r="B254" s="13"/>
+      <c r="A254" s="20"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E254" s="13"/>
+      <c r="E254" s="20"/>
       <c r="F254" s="9"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="13"/>
-      <c r="B255" s="13"/>
+      <c r="A255" s="20"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E255" s="13"/>
+      <c r="E255" s="20"/>
       <c r="F255" s="9"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="13">
+      <c r="A256" s="20">
         <v>32</v>
       </c>
-      <c r="B256" s="13" t="s">
+      <c r="B256" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C256" s="9" t="s">
@@ -5590,7 +5628,7 @@
       <c r="D256" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E256" s="13" t="s">
+      <c r="E256" s="20" t="s">
         <v>142</v>
       </c>
       <c r="F256" s="9" t="s">
@@ -5598,126 +5636,126 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13"/>
+      <c r="A257" s="20"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E257" s="13"/>
+      <c r="E257" s="20"/>
       <c r="F257" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="13"/>
-      <c r="B258" s="13"/>
+      <c r="A258" s="20"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E258" s="13"/>
+      <c r="E258" s="20"/>
       <c r="F258" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="13"/>
-      <c r="B259" s="13"/>
+      <c r="A259" s="20"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="9" t="s">
         <v>147</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E259" s="13"/>
+      <c r="E259" s="20"/>
       <c r="F259" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="13"/>
-      <c r="B260" s="13"/>
+      <c r="A260" s="20"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E260" s="13"/>
+      <c r="E260" s="20"/>
       <c r="F260" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13"/>
+      <c r="A261" s="20"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E261" s="13"/>
+      <c r="E261" s="20"/>
       <c r="F261" s="9"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13"/>
+      <c r="A262" s="20"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E262" s="13"/>
+      <c r="E262" s="20"/>
       <c r="F262" s="9"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="13"/>
-      <c r="B263" s="13"/>
+      <c r="A263" s="20"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E263" s="13"/>
+      <c r="E263" s="20"/>
       <c r="F263" s="9"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13"/>
+      <c r="A264" s="20"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E264" s="13"/>
+      <c r="E264" s="20"/>
       <c r="F264" s="9"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
-      <c r="B265" s="13"/>
+      <c r="A265" s="20"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E265" s="13"/>
+      <c r="E265" s="20"/>
       <c r="F265" s="9"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="13">
+      <c r="A266" s="20">
         <v>33</v>
       </c>
-      <c r="B266" s="13" t="s">
+      <c r="B266" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C266" s="9" t="s">
@@ -5726,7 +5764,7 @@
       <c r="D266" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E266" s="13" t="s">
+      <c r="E266" s="20" t="s">
         <v>154</v>
       </c>
       <c r="F266" s="9" t="s">
@@ -5734,118 +5772,118 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
+      <c r="A267" s="20"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E267" s="13"/>
+      <c r="E267" s="20"/>
       <c r="F267" s="9"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="13"/>
-      <c r="B268" s="13"/>
+      <c r="A268" s="20"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E268" s="13"/>
+      <c r="E268" s="20"/>
       <c r="F268" s="9"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="13"/>
-      <c r="B269" s="13"/>
+      <c r="A269" s="20"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E269" s="13"/>
+      <c r="E269" s="20"/>
       <c r="F269" s="9"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="13"/>
-      <c r="B270" s="13"/>
+      <c r="A270" s="20"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E270" s="13"/>
+      <c r="E270" s="20"/>
       <c r="F270" s="9"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="13"/>
-      <c r="B271" s="13"/>
+      <c r="A271" s="20"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E271" s="13"/>
+      <c r="E271" s="20"/>
       <c r="F271" s="9"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
-      <c r="B272" s="13"/>
+      <c r="A272" s="20"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="9" t="s">
         <v>156</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E272" s="13"/>
+      <c r="E272" s="20"/>
       <c r="F272" s="9"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
-      <c r="B273" s="13"/>
+      <c r="A273" s="20"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E273" s="13"/>
+      <c r="E273" s="20"/>
       <c r="F273" s="9"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="13"/>
-      <c r="B274" s="13"/>
+      <c r="A274" s="20"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E274" s="13"/>
+      <c r="E274" s="20"/>
       <c r="F274" s="9"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="13"/>
-      <c r="B275" s="13"/>
+      <c r="A275" s="20"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E275" s="13"/>
+      <c r="E275" s="20"/>
       <c r="F275" s="9"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="13">
+      <c r="A276" s="20">
         <v>34</v>
       </c>
-      <c r="B276" s="13" t="s">
+      <c r="B276" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C276" s="9" t="s">
@@ -5854,7 +5892,7 @@
       <c r="D276" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E276" s="13" t="s">
+      <c r="E276" s="20" t="s">
         <v>160</v>
       </c>
       <c r="F276" s="9" t="s">
@@ -5862,2307 +5900,2399 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
-      <c r="B277" s="13"/>
+      <c r="A277" s="20"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E277" s="13"/>
+      <c r="E277" s="20"/>
       <c r="F277" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="13"/>
-      <c r="B278" s="13"/>
+      <c r="A278" s="20"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E278" s="13"/>
+      <c r="E278" s="20"/>
       <c r="F278" s="9"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="13"/>
-      <c r="B279" s="13"/>
+      <c r="A279" s="20"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E279" s="13"/>
+      <c r="E279" s="20"/>
       <c r="F279" s="9"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="13"/>
-      <c r="B280" s="13"/>
+      <c r="A280" s="20"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E280" s="13"/>
+      <c r="E280" s="20"/>
       <c r="F280" s="9"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
-      <c r="B281" s="13"/>
+      <c r="A281" s="20"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E281" s="13"/>
+      <c r="E281" s="20"/>
       <c r="F281" s="9"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="13"/>
-      <c r="B282" s="13"/>
+      <c r="A282" s="20"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E282" s="13"/>
+      <c r="E282" s="20"/>
       <c r="F282" s="9"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="19">
+      <c r="A283" s="18">
         <v>35</v>
       </c>
-      <c r="B283" s="19" t="s">
+      <c r="B283" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F283" s="23">
+        <v>17707254320</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="18"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="19"/>
+      <c r="F284" s="7"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="18"/>
+      <c r="B285" s="18"/>
+      <c r="C285" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" s="19"/>
+      <c r="F285" s="7"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="18"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" s="19"/>
+      <c r="F286" s="7"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="18"/>
+      <c r="B287" s="18"/>
+      <c r="C287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287" s="19"/>
+      <c r="F287" s="7"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="18"/>
+      <c r="B288" s="18"/>
+      <c r="C288" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" s="19"/>
+      <c r="F288" s="7"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="18"/>
+      <c r="B289" s="18"/>
+      <c r="C289" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" s="19"/>
+      <c r="F289" s="7"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="18">
+        <v>36</v>
+      </c>
+      <c r="B290" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="18"/>
+      <c r="B291" s="18"/>
+      <c r="C291" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" s="19"/>
+      <c r="F291" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="18"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292" s="19"/>
+      <c r="F292" s="8"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="18"/>
+      <c r="B293" s="18"/>
+      <c r="C293" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" s="19"/>
+      <c r="F293" s="8"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="18"/>
+      <c r="B294" s="18"/>
+      <c r="C294" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" s="19"/>
+      <c r="F294" s="8"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="18"/>
+      <c r="B295" s="18"/>
+      <c r="C295" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" s="19"/>
+      <c r="F295" s="8"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="18"/>
+      <c r="B296" s="18"/>
+      <c r="C296" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" s="19"/>
+      <c r="F296" s="8"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="18"/>
+      <c r="B297" s="18"/>
+      <c r="C297" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297" s="19"/>
+      <c r="F297" s="8"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="18"/>
+      <c r="B298" s="18"/>
+      <c r="C298" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E298" s="19"/>
+      <c r="F298" s="8"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="18">
+        <v>37</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E299" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="18"/>
+      <c r="B300" s="18"/>
+      <c r="C300" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E300" s="21"/>
+      <c r="F300" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="18"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E301" s="21"/>
+      <c r="F301" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="18"/>
+      <c r="B302" s="18"/>
+      <c r="C302" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" s="21"/>
+      <c r="F302" s="7"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="18"/>
+      <c r="B303" s="18"/>
+      <c r="C303" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E303" s="21"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="18"/>
+      <c r="B304" s="18"/>
+      <c r="C304" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" s="21"/>
+      <c r="F304" s="7"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="18"/>
+      <c r="B305" s="18"/>
+      <c r="C305" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E305" s="21"/>
+      <c r="F305" s="7"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="18"/>
+      <c r="B306" s="18"/>
+      <c r="C306" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" s="21"/>
+      <c r="F306" s="7"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="18"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E307" s="21"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="18"/>
+      <c r="B308" s="18"/>
+      <c r="C308" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308" s="21"/>
+      <c r="F308" s="7"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="18"/>
+      <c r="B309" s="18"/>
+      <c r="C309" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E309" s="21"/>
+      <c r="F309" s="7"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="18">
+        <v>38</v>
+      </c>
+      <c r="B310" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E310" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="18"/>
+      <c r="B311" s="18"/>
+      <c r="C311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E311" s="21"/>
+      <c r="F311" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="18"/>
+      <c r="B312" s="18"/>
+      <c r="C312" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E312" s="21"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="18"/>
+      <c r="B313" s="18"/>
+      <c r="C313" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E313" s="21"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="18"/>
+      <c r="B314" s="18"/>
+      <c r="C314" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E314" s="21"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="18"/>
+      <c r="B315" s="18"/>
+      <c r="C315" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E315" s="21"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="18"/>
+      <c r="B316" s="18"/>
+      <c r="C316" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" s="21"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="18"/>
+      <c r="B317" s="18"/>
+      <c r="C317" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" s="21"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="18">
+        <v>39</v>
+      </c>
+      <c r="B318" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="18"/>
+      <c r="B319" s="18"/>
+      <c r="C319" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" s="21"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="18"/>
+      <c r="B320" s="18"/>
+      <c r="C320" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320" s="21"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="18"/>
+      <c r="B321" s="18"/>
+      <c r="C321" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" s="21"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="18"/>
+      <c r="B322" s="18"/>
+      <c r="C322" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322" s="21"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="18"/>
+      <c r="B323" s="18"/>
+      <c r="C323" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" s="21"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="18"/>
+      <c r="B324" s="18"/>
+      <c r="C324" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" s="21"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="18"/>
+      <c r="B325" s="18"/>
+      <c r="C325" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325" s="21"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="18"/>
+      <c r="B326" s="18"/>
+      <c r="C326" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" s="21"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="18">
+        <v>40</v>
+      </c>
+      <c r="B327" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="18"/>
+      <c r="B328" s="18"/>
+      <c r="C328" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328" s="19"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="18"/>
+      <c r="B329" s="18"/>
+      <c r="C329" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E329" s="19"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="18"/>
+      <c r="B330" s="18"/>
+      <c r="C330" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" s="19"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="18"/>
+      <c r="B331" s="18"/>
+      <c r="C331" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E331" s="19"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="18"/>
+      <c r="B332" s="18"/>
+      <c r="C332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332" s="19"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="18"/>
+      <c r="B333" s="18"/>
+      <c r="C333" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E333" s="19"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="18"/>
+      <c r="B334" s="18"/>
+      <c r="C334" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334" s="19"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="18"/>
+      <c r="B335" s="18"/>
+      <c r="C335" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" s="19"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="18">
+        <v>41</v>
+      </c>
+      <c r="B336" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="18"/>
+      <c r="B337" s="18"/>
+      <c r="C337" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337" s="21"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="18"/>
+      <c r="B338" s="18"/>
+      <c r="C338" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E338" s="21"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="18"/>
+      <c r="B339" s="18"/>
+      <c r="C339" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E339" s="21"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="18"/>
+      <c r="B340" s="18"/>
+      <c r="C340" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E340" s="21"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="18"/>
+      <c r="B341" s="18"/>
+      <c r="C341" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E341" s="21"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="18"/>
+      <c r="B342" s="18"/>
+      <c r="C342" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E342" s="21"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="18"/>
+      <c r="B343" s="18"/>
+      <c r="C343" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E343" s="21"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="18">
+        <v>42</v>
+      </c>
+      <c r="B344" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="18"/>
+      <c r="B345" s="18"/>
+      <c r="C345" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" s="19"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="18"/>
+      <c r="B346" s="18"/>
+      <c r="C346" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="19"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="18"/>
+      <c r="B347" s="18"/>
+      <c r="C347" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E347" s="19"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="18"/>
+      <c r="B348" s="18"/>
+      <c r="C348" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E348" s="19"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="18"/>
+      <c r="B349" s="18"/>
+      <c r="C349" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" s="19"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="18"/>
+      <c r="B350" s="18"/>
+      <c r="C350" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" s="19"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="18"/>
+      <c r="B351" s="18"/>
+      <c r="C351" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" s="19"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="18"/>
+      <c r="B352" s="18"/>
+      <c r="C352" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E352" s="19"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="18">
+        <v>43</v>
+      </c>
+      <c r="B353" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E353" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F353" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="18"/>
+      <c r="B354" s="18"/>
+      <c r="C354" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E354" s="19"/>
+      <c r="F354" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="18"/>
+      <c r="B355" s="18"/>
+      <c r="C355" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E355" s="19"/>
+      <c r="F355" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="18"/>
+      <c r="B356" s="18"/>
+      <c r="C356" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E356" s="19"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="18"/>
+      <c r="B357" s="18"/>
+      <c r="C357" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E357" s="19"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="18"/>
+      <c r="B358" s="18"/>
+      <c r="C358" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358" s="19"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="18"/>
+      <c r="B359" s="18"/>
+      <c r="C359" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E359" s="19"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="18"/>
+      <c r="B360" s="18"/>
+      <c r="C360" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" s="19"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="18">
+        <v>44</v>
+      </c>
+      <c r="B361" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E361" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="18"/>
+      <c r="B362" s="18"/>
+      <c r="C362" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" s="19"/>
+      <c r="F362" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="18"/>
+      <c r="B363" s="18"/>
+      <c r="C363" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E363" s="19"/>
+      <c r="F363" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="18"/>
+      <c r="B364" s="18"/>
+      <c r="C364" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E364" s="19"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="18"/>
+      <c r="B365" s="18"/>
+      <c r="C365" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365" s="19"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="18"/>
+      <c r="B366" s="18"/>
+      <c r="C366" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" s="19"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="18"/>
+      <c r="B367" s="18"/>
+      <c r="C367" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E367" s="19"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="18"/>
+      <c r="B368" s="18"/>
+      <c r="C368" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368" s="19"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="18"/>
+      <c r="B369" s="18"/>
+      <c r="C369" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E369" s="19"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="18">
+        <v>45</v>
+      </c>
+      <c r="B370" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F370" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="18"/>
+      <c r="B371" s="18"/>
+      <c r="C371" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E371" s="19"/>
+      <c r="F371" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="18"/>
+      <c r="B372" s="18"/>
+      <c r="C372" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" s="19"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="18"/>
+      <c r="B373" s="18"/>
+      <c r="C373" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E373" s="19"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="18"/>
+      <c r="B374" s="18"/>
+      <c r="C374" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374" s="19"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="18"/>
+      <c r="B375" s="18"/>
+      <c r="C375" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" s="19"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="18"/>
+      <c r="B376" s="18"/>
+      <c r="C376" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" s="19"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="18"/>
+      <c r="B377" s="18"/>
+      <c r="C377" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E377" s="19"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="18"/>
+      <c r="B378" s="18"/>
+      <c r="C378" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378" s="19"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="18"/>
+      <c r="B379" s="18"/>
+      <c r="C379" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" s="19"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="18"/>
+      <c r="B380" s="18"/>
+      <c r="C380" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380" s="19"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="18">
+        <v>46</v>
+      </c>
+      <c r="B381" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E381" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F381" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="18"/>
+      <c r="B382" s="18"/>
+      <c r="C382" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" s="19"/>
+      <c r="F382" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="18"/>
+      <c r="B383" s="18"/>
+      <c r="C383" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E383" s="19"/>
+      <c r="F383" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="18"/>
+      <c r="B384" s="18"/>
+      <c r="C384" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" s="19"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="18"/>
+      <c r="B385" s="18"/>
+      <c r="C385" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E385" s="19"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="18"/>
+      <c r="B386" s="18"/>
+      <c r="C386" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386" s="19"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="18"/>
+      <c r="B387" s="18"/>
+      <c r="C387" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" s="19"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="18"/>
+      <c r="B388" s="18"/>
+      <c r="C388" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E388" s="19"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="18"/>
+      <c r="B389" s="18"/>
+      <c r="C389" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E389" s="19"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="18"/>
+      <c r="B390" s="18"/>
+      <c r="C390" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" s="19"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="15">
+        <v>48</v>
+      </c>
+      <c r="B391" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C391" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D391" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E391" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F391" s="13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="15"/>
+      <c r="B392" s="15"/>
+      <c r="C392" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="D392" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E392" s="17"/>
+      <c r="F392" s="13" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="15"/>
+      <c r="B393" s="15"/>
+      <c r="C393" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D393" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E393" s="17"/>
+      <c r="F393" s="13"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="15"/>
+      <c r="B394" s="15"/>
+      <c r="C394" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D394" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E394" s="17"/>
+      <c r="F394"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="15"/>
+      <c r="B395" s="15"/>
+      <c r="C395" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D395" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E395" s="17"/>
+      <c r="F395"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="15"/>
+      <c r="B396" s="15"/>
+      <c r="C396" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D396" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E396" s="17"/>
+      <c r="F396"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="15"/>
+      <c r="B397" s="15"/>
+      <c r="C397" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D397" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E397" s="17"/>
+      <c r="F397"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="15"/>
+      <c r="B398" s="15"/>
+      <c r="C398" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D398" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E398" s="17"/>
+      <c r="F398"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="15">
+        <v>49</v>
+      </c>
+      <c r="B399" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="C283" s="20" t="s">
+      <c r="C399" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="D283" s="11" t="s">
+      <c r="D399" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E283" s="21" t="s">
+      <c r="E399" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="F283" s="11" t="s">
+      <c r="F399" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="19"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="20" t="s">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="15"/>
+      <c r="B400" s="15"/>
+      <c r="C400" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="D284" s="11" t="s">
+      <c r="D400" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E284" s="21"/>
-      <c r="F284" s="11" t="s">
+      <c r="E400" s="17"/>
+      <c r="F400"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="15"/>
+      <c r="B401" s="15"/>
+      <c r="C401" s="14" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="19"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="20" t="s">
+      <c r="D401" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E401" s="17"/>
+      <c r="F401"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="15"/>
+      <c r="B402" s="15"/>
+      <c r="C402" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D285" s="11" t="s">
+      <c r="D402" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E285" s="21"/>
-      <c r="F285" s="11"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="19"/>
-      <c r="B286" s="19"/>
-      <c r="C286" s="11" t="s">
+      <c r="E402" s="17"/>
+      <c r="F402"/>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="15"/>
+      <c r="B403" s="15"/>
+      <c r="C403" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D286" s="11" t="s">
+      <c r="D403" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E286" s="21"/>
-      <c r="F286"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="19"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="11" t="s">
+      <c r="E403" s="17"/>
+      <c r="F403"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="15"/>
+      <c r="B404" s="15"/>
+      <c r="C404" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="D287" s="11" t="s">
+      <c r="D404" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E287" s="21"/>
-      <c r="F287"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="19"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="11" t="s">
+      <c r="E404" s="17"/>
+      <c r="F404"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="15"/>
+      <c r="B405" s="15"/>
+      <c r="C405" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D288" s="11" t="s">
+      <c r="D405" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E288" s="21"/>
-      <c r="F288"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="11" t="s">
+      <c r="E405" s="17"/>
+      <c r="F405"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="15"/>
+      <c r="B406" s="15"/>
+      <c r="C406" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="D289" s="11" t="s">
+      <c r="D406" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E289" s="21"/>
-      <c r="F289"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="19"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="11" t="s">
+      <c r="E406" s="17"/>
+      <c r="F406"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="15"/>
+      <c r="B407" s="15"/>
+      <c r="C407" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D290" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E290" s="21"/>
-      <c r="F290"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="16">
-        <v>36</v>
-      </c>
-      <c r="B291" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E291" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F291" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="16"/>
-      <c r="B292" s="16"/>
-      <c r="C292" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E292" s="18"/>
-      <c r="F292" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="16"/>
-      <c r="B293" s="16"/>
-      <c r="C293" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E293" s="18"/>
-      <c r="F293" s="8"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="16"/>
-      <c r="B294" s="16"/>
-      <c r="C294" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E294" s="18"/>
-      <c r="F294" s="8"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="16"/>
-      <c r="B295" s="16"/>
-      <c r="C295" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E295" s="18"/>
-      <c r="F295" s="8"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="16"/>
-      <c r="B296" s="16"/>
-      <c r="C296" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E296" s="18"/>
-      <c r="F296" s="8"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="16"/>
-      <c r="B297" s="16"/>
-      <c r="C297" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E297" s="18"/>
-      <c r="F297" s="8"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="16"/>
-      <c r="B298" s="16"/>
-      <c r="C298" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E298" s="18"/>
-      <c r="F298" s="8"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="16"/>
-      <c r="B299" s="16"/>
-      <c r="C299" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E299" s="18"/>
-      <c r="F299" s="8"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="16">
-        <v>37</v>
-      </c>
-      <c r="B300" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E300" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F300" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="16"/>
-      <c r="B301" s="16"/>
-      <c r="C301" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E301" s="17"/>
-      <c r="F301" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="16"/>
-      <c r="B302" s="16"/>
-      <c r="C302" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E302" s="17"/>
-      <c r="F302" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="16"/>
-      <c r="B303" s="16"/>
-      <c r="C303" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E303" s="17"/>
-      <c r="F303" s="7"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="16"/>
-      <c r="B304" s="16"/>
-      <c r="C304" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E304" s="17"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="16"/>
-      <c r="B305" s="16"/>
-      <c r="C305" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E305" s="17"/>
-      <c r="F305" s="7"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="16"/>
-      <c r="B306" s="16"/>
-      <c r="C306" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E306" s="17"/>
-      <c r="F306" s="7"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="16"/>
-      <c r="B307" s="16"/>
-      <c r="C307" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E307" s="17"/>
-      <c r="F307" s="7"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="16"/>
-      <c r="B308" s="16"/>
-      <c r="C308" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E308" s="17"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="16"/>
-      <c r="B309" s="16"/>
-      <c r="C309" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E309" s="17"/>
-      <c r="F309" s="7"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="16"/>
-      <c r="B310" s="16"/>
-      <c r="C310" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E310" s="17"/>
-      <c r="F310" s="7"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="16">
-        <v>38</v>
-      </c>
-      <c r="B311" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E311" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="16"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E312" s="17"/>
-      <c r="F312" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="16"/>
-      <c r="B313" s="16"/>
-      <c r="C313" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E313" s="17"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="16"/>
-      <c r="B314" s="16"/>
-      <c r="C314" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E314" s="17"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="16"/>
-      <c r="B315" s="16"/>
-      <c r="C315" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E315" s="17"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="16"/>
-      <c r="B316" s="16"/>
-      <c r="C316" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E316" s="17"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="16"/>
-      <c r="B317" s="16"/>
-      <c r="C317" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E317" s="17"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="16"/>
-      <c r="B318" s="16"/>
-      <c r="C318" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E318" s="17"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="16">
-        <v>39</v>
-      </c>
-      <c r="B319" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E319" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="16"/>
-      <c r="B320" s="16"/>
-      <c r="C320" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E320" s="17"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="16"/>
-      <c r="B321" s="16"/>
-      <c r="C321" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E321" s="17"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="16"/>
-      <c r="B322" s="16"/>
-      <c r="C322" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E322" s="17"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="16"/>
-      <c r="B323" s="16"/>
-      <c r="C323" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E323" s="17"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="16"/>
-      <c r="B324" s="16"/>
-      <c r="C324" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E324" s="17"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="16"/>
-      <c r="B325" s="16"/>
-      <c r="C325" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E325" s="17"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="16"/>
-      <c r="B326" s="16"/>
-      <c r="C326" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E326" s="17"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="16"/>
-      <c r="B327" s="16"/>
-      <c r="C327" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E327" s="17"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="16">
-        <v>40</v>
-      </c>
-      <c r="B328" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E328" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F328" s="4" t="s">
+      <c r="D407" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E407" s="17"/>
+      <c r="F407"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="16"/>
-      <c r="B329" s="16"/>
-      <c r="C329" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E329" s="18"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="16"/>
-      <c r="B330" s="16"/>
-      <c r="C330" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E330" s="18"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="16"/>
-      <c r="B331" s="16"/>
-      <c r="C331" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E331" s="18"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="16"/>
-      <c r="B332" s="16"/>
-      <c r="C332" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E332" s="18"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="16"/>
-      <c r="B333" s="16"/>
-      <c r="C333" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E333" s="18"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="16"/>
-      <c r="B334" s="16"/>
-      <c r="C334" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E334" s="18"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="16"/>
-      <c r="B335" s="16"/>
-      <c r="C335" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E335" s="18"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="16"/>
-      <c r="B336" s="16"/>
-      <c r="C336" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E336" s="18"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="16">
-        <v>41</v>
-      </c>
-      <c r="B337" s="16" t="s">
+      <c r="B408" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C408" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D408" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E408" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F408" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="15"/>
+      <c r="B409" s="15"/>
+      <c r="C409" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D409" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E409" s="17"/>
+      <c r="F409" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="15"/>
+      <c r="B410" s="15"/>
+      <c r="C410" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D410" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E410" s="17"/>
+      <c r="F410"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="15"/>
+      <c r="B411" s="15"/>
+      <c r="C411" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D411" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E411" s="17"/>
+      <c r="F411"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="15"/>
+      <c r="B412" s="15"/>
+      <c r="C412" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D412" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E412" s="17"/>
+      <c r="F412"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="15"/>
+      <c r="B413" s="15"/>
+      <c r="C413" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D413" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E413" s="17"/>
+      <c r="F413"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="15"/>
+      <c r="B414" s="15"/>
+      <c r="C414" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D414" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E414" s="17"/>
+      <c r="F414"/>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="15"/>
+      <c r="B415" s="15"/>
+      <c r="C415" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D415" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E415" s="17"/>
+      <c r="F415"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="15"/>
+      <c r="B416" s="15"/>
+      <c r="C416" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D416" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E416" s="17"/>
+      <c r="F416"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="15"/>
+      <c r="B417" s="15"/>
+      <c r="C417" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D417" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E417" s="17"/>
+      <c r="F417"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="15">
         <v>51</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E337" s="17" t="s">
+      <c r="B418" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C418" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D418" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E418" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F418" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="15"/>
+      <c r="B419" s="15"/>
+      <c r="C419" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D419" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E419" s="17"/>
+      <c r="F419"/>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="15"/>
+      <c r="B420" s="15"/>
+      <c r="C420" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D420" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E420" s="17"/>
+      <c r="F420"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="15"/>
+      <c r="B421" s="15"/>
+      <c r="C421" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D421" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E421" s="17"/>
+      <c r="F421"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="15"/>
+      <c r="B422" s="15"/>
+      <c r="C422" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D422" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E422" s="17"/>
+      <c r="F422"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="15"/>
+      <c r="B423" s="15"/>
+      <c r="C423" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D423" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E423" s="17"/>
+      <c r="F423"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="15"/>
+      <c r="B424" s="15"/>
+      <c r="C424" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D424" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E424" s="17"/>
+      <c r="F424"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="15"/>
+      <c r="B425" s="15"/>
+      <c r="C425" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D425" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E425" s="17"/>
+      <c r="F425"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="15"/>
+      <c r="B426" s="15"/>
+      <c r="C426" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D426" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E426" s="17"/>
+      <c r="F426"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="15">
         <v>52</v>
       </c>
-      <c r="F337" s="4" t="s">
+      <c r="B427" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C427" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D427" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E427" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F427" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="15"/>
+      <c r="B428" s="15"/>
+      <c r="C428" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D428" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E428" s="17"/>
+      <c r="F428" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="15"/>
+      <c r="B429" s="15"/>
+      <c r="C429" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D429" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E429" s="17"/>
+      <c r="F429"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="15"/>
+      <c r="B430" s="15"/>
+      <c r="C430" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D430" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E430" s="17"/>
+      <c r="F430"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="15"/>
+      <c r="B431" s="15"/>
+      <c r="C431" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D431" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E431" s="17"/>
+      <c r="F431"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="15"/>
+      <c r="B432" s="15"/>
+      <c r="C432" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D432" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E432" s="17"/>
+      <c r="F432"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="15"/>
+      <c r="B433" s="15"/>
+      <c r="C433" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D433" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E433" s="17"/>
+      <c r="F433"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="15"/>
+      <c r="B434" s="15"/>
+      <c r="C434" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D434" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E434" s="17"/>
+      <c r="F434"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="15"/>
+      <c r="B435" s="15"/>
+      <c r="C435" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D435" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E435" s="17"/>
+      <c r="F435"/>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="15">
         <v>53</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="16"/>
-      <c r="B338" s="16"/>
-      <c r="C338" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E338" s="17"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="16"/>
-      <c r="B339" s="16"/>
-      <c r="C339" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E339" s="17"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="16"/>
-      <c r="B340" s="16"/>
-      <c r="C340" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E340" s="17"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="16"/>
-      <c r="B341" s="16"/>
-      <c r="C341" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E341" s="17"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="16"/>
-      <c r="B342" s="16"/>
-      <c r="C342" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E342" s="17"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="16"/>
-      <c r="B343" s="16"/>
-      <c r="C343" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E343" s="17"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="16"/>
-      <c r="B344" s="16"/>
-      <c r="C344" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E344" s="17"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="16">
-        <v>42</v>
-      </c>
-      <c r="B345" s="16" t="s">
+      <c r="B436" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C436" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D436" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E436" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="F436" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="15"/>
+      <c r="B437" s="15"/>
+      <c r="C437" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D437" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E437" s="17"/>
+      <c r="F437" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="15"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D438" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E438" s="17"/>
+      <c r="F438"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="15"/>
+      <c r="B439" s="15"/>
+      <c r="C439" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D439" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E439" s="17"/>
+      <c r="F439"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="15"/>
+      <c r="B440" s="15"/>
+      <c r="C440" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D440" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E440" s="17"/>
+      <c r="F440"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="15"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D441" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E441" s="17"/>
+      <c r="F441"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="15"/>
+      <c r="B442" s="15"/>
+      <c r="C442" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D442" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E442" s="17"/>
+      <c r="F442"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="15"/>
+      <c r="B443" s="15"/>
+      <c r="C443" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D443" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E443" s="17"/>
+      <c r="F443"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="15"/>
+      <c r="B444" s="15"/>
+      <c r="C444" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D444" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E444" s="17"/>
+      <c r="F444"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="15"/>
+      <c r="B445" s="15"/>
+      <c r="C445" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D445" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E445" s="17"/>
+      <c r="F445"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="15"/>
+      <c r="B446" s="15"/>
+      <c r="C446" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D446" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E446" s="17"/>
+      <c r="F446"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="15"/>
+      <c r="B447" s="15"/>
+      <c r="C447" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D447" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E447" s="17"/>
+      <c r="F447"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="15"/>
+      <c r="B448" s="15"/>
+      <c r="C448" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D448" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E448" s="17"/>
+      <c r="F448"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="15"/>
+      <c r="B449" s="15"/>
+      <c r="C449" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D449" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E449" s="17"/>
+      <c r="F449"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="15"/>
+      <c r="B450" s="15"/>
+      <c r="C450" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D450" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E450" s="17"/>
+      <c r="F450"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="15"/>
+      <c r="B451" s="15"/>
+      <c r="C451" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D451" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E451" s="17"/>
+      <c r="F451"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="15">
         <v>54</v>
       </c>
-      <c r="C345" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E345" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F345" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="16"/>
-      <c r="B346" s="16"/>
-      <c r="C346" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E346" s="18"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="16"/>
-      <c r="B347" s="16"/>
-      <c r="C347" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E347" s="18"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="16"/>
-      <c r="B348" s="16"/>
-      <c r="C348" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E348" s="18"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="16"/>
-      <c r="B349" s="16"/>
-      <c r="C349" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E349" s="18"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="16"/>
-      <c r="B350" s="16"/>
-      <c r="C350" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E350" s="18"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="16"/>
-      <c r="B351" s="16"/>
-      <c r="C351" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E351" s="18"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="16"/>
-      <c r="B352" s="16"/>
-      <c r="C352" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E352" s="18"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="16"/>
-      <c r="B353" s="16"/>
-      <c r="C353" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E353" s="18"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="16">
-        <v>43</v>
-      </c>
-      <c r="B354" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E354" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F354" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="16"/>
-      <c r="B355" s="16"/>
-      <c r="C355" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E355" s="18"/>
-      <c r="F355" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="16"/>
-      <c r="B356" s="16"/>
-      <c r="C356" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E356" s="18"/>
-      <c r="F356" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="16"/>
-      <c r="B357" s="16"/>
-      <c r="C357" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E357" s="18"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="16"/>
-      <c r="B358" s="16"/>
-      <c r="C358" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E358" s="18"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="16"/>
-      <c r="B359" s="16"/>
-      <c r="C359" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E359" s="18"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="16"/>
-      <c r="B360" s="16"/>
-      <c r="C360" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E360" s="18"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="16"/>
-      <c r="B361" s="16"/>
-      <c r="C361" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E361" s="18"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="16">
-        <v>44</v>
-      </c>
-      <c r="B362" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E362" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F362" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="16"/>
-      <c r="B363" s="16"/>
-      <c r="C363" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E363" s="18"/>
-      <c r="F363" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="16"/>
-      <c r="B364" s="16"/>
-      <c r="C364" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E364" s="18"/>
-      <c r="F364" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="16"/>
-      <c r="B365" s="16"/>
-      <c r="C365" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E365" s="18"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="16"/>
-      <c r="B366" s="16"/>
-      <c r="C366" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E366" s="18"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="16"/>
-      <c r="B367" s="16"/>
-      <c r="C367" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E367" s="18"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="16"/>
-      <c r="B368" s="16"/>
-      <c r="C368" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E368" s="18"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="16"/>
-      <c r="B369" s="16"/>
-      <c r="C369" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E369" s="18"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="16"/>
-      <c r="B370" s="16"/>
-      <c r="C370" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E370" s="18"/>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="16">
-        <v>45</v>
-      </c>
-      <c r="B371" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E371" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F371" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="16"/>
-      <c r="B372" s="16"/>
-      <c r="C372" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E372" s="18"/>
-      <c r="F372" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="16"/>
-      <c r="B373" s="16"/>
-      <c r="C373" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E373" s="18"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="16"/>
-      <c r="B374" s="16"/>
-      <c r="C374" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E374" s="18"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="16"/>
-      <c r="B375" s="16"/>
-      <c r="C375" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E375" s="18"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="16"/>
-      <c r="B376" s="16"/>
-      <c r="C376" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E376" s="18"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="16"/>
-      <c r="B377" s="16"/>
-      <c r="C377" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E377" s="18"/>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="16"/>
-      <c r="B378" s="16"/>
-      <c r="C378" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E378" s="18"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="16"/>
-      <c r="B379" s="16"/>
-      <c r="C379" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E379" s="18"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="16"/>
-      <c r="B380" s="16"/>
-      <c r="C380" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E380" s="18"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="16"/>
-      <c r="B381" s="16"/>
-      <c r="C381" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E381" s="18"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="16">
-        <v>46</v>
-      </c>
-      <c r="B382" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E382" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F382" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="16"/>
-      <c r="B383" s="16"/>
-      <c r="C383" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E383" s="18"/>
-      <c r="F383" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="16"/>
-      <c r="B384" s="16"/>
-      <c r="C384" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E384" s="18"/>
-      <c r="F384" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="16"/>
-      <c r="B385" s="16"/>
-      <c r="C385" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E385" s="18"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="16"/>
-      <c r="B386" s="16"/>
-      <c r="C386" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E386" s="18"/>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="16"/>
-      <c r="B387" s="16"/>
-      <c r="C387" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D387" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E387" s="18"/>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="16"/>
-      <c r="B388" s="16"/>
-      <c r="C388" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E388" s="18"/>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="16"/>
-      <c r="B389" s="16"/>
-      <c r="C389" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E389" s="18"/>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="16"/>
-      <c r="B390" s="16"/>
-      <c r="C390" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E390" s="18"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="16"/>
-      <c r="B391" s="16"/>
-      <c r="C391" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E391" s="18"/>
-    </row>
-    <row r="392" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="19">
-        <v>49</v>
-      </c>
-      <c r="B392" s="19" t="s">
+      <c r="B452" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C452" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="D452" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C392" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D392" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E392" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="F392" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="19"/>
-      <c r="B393" s="19"/>
-      <c r="C393" s="20" t="s">
+      <c r="E452" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F452" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="15"/>
+      <c r="B453" s="15"/>
+      <c r="C453" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="D393" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E393" s="21"/>
-      <c r="F393"/>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="19"/>
-      <c r="B394" s="19"/>
-      <c r="C394" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="D394" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E394" s="21"/>
-      <c r="F394"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="19"/>
-      <c r="B395" s="19"/>
-      <c r="C395" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D395" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E395" s="21"/>
-      <c r="F395"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="19"/>
-      <c r="B396" s="19"/>
-      <c r="C396" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D396" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E396" s="21"/>
-      <c r="F396"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="19"/>
-      <c r="B397" s="19"/>
-      <c r="C397" s="20" t="s">
+      <c r="D453" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E453" s="16"/>
+      <c r="F453"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="15"/>
+      <c r="B454" s="15"/>
+      <c r="C454" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="D397" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E397" s="21"/>
-      <c r="F397"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="19"/>
-      <c r="B398" s="19"/>
-      <c r="C398" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D398" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E398" s="21"/>
-      <c r="F398"/>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="19"/>
-      <c r="B399" s="19"/>
-      <c r="C399" s="20" t="s">
+      <c r="D454" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E454" s="16"/>
+      <c r="F454"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="15"/>
+      <c r="B455" s="15"/>
+      <c r="C455" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="D399" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E399" s="21"/>
-      <c r="F399"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="19"/>
-      <c r="B400" s="19"/>
-      <c r="C400" s="20" t="s">
+      <c r="D455" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E455" s="16"/>
+      <c r="F455"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="15"/>
+      <c r="B456" s="15"/>
+      <c r="C456" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D400" s="11" t="s">
+      <c r="D456" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E456" s="16"/>
+      <c r="F456"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="15"/>
+      <c r="B457" s="15"/>
+      <c r="C457" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="E400" s="21"/>
-      <c r="F400"/>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="19">
-        <v>50</v>
-      </c>
-      <c r="B401" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C401" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D401" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E401" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="F401" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="19"/>
-      <c r="B402" s="19"/>
-      <c r="C402" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D402" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E402" s="21"/>
-      <c r="F402" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="19"/>
-      <c r="B403" s="19"/>
-      <c r="C403" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="D403" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E403" s="21"/>
-      <c r="F403"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="19"/>
-      <c r="B404" s="19"/>
-      <c r="C404" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D404" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E404" s="21"/>
-      <c r="F404"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="19"/>
-      <c r="B405" s="19"/>
-      <c r="C405" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D405" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E405" s="21"/>
-      <c r="F405"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="19"/>
-      <c r="B406" s="19"/>
-      <c r="C406" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="D406" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E406" s="21"/>
-      <c r="F406"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="19"/>
-      <c r="B407" s="19"/>
-      <c r="C407" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D407" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E407" s="21"/>
-      <c r="F407"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="19"/>
-      <c r="B408" s="19"/>
-      <c r="C408" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D408" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E408" s="21"/>
-      <c r="F408"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="19"/>
-      <c r="B409" s="19"/>
-      <c r="C409" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D409" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E409" s="21"/>
-      <c r="F409"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="19"/>
-      <c r="B410" s="19"/>
-      <c r="C410" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D410" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E410" s="21"/>
-      <c r="F410"/>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="19">
-        <v>51</v>
-      </c>
-      <c r="B411" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C411" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D411" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E411" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="F411" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="19"/>
-      <c r="B412" s="19"/>
-      <c r="C412" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D412" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E412" s="21"/>
-      <c r="F412"/>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="19"/>
-      <c r="B413" s="19"/>
-      <c r="C413" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D413" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E413" s="21"/>
-      <c r="F413"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="19"/>
-      <c r="B414" s="19"/>
-      <c r="C414" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D414" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E414" s="21"/>
-      <c r="F414"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="19"/>
-      <c r="B415" s="19"/>
-      <c r="C415" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="D415" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E415" s="21"/>
-      <c r="F415"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="19"/>
-      <c r="B416" s="19"/>
-      <c r="C416" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D416" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E416" s="21"/>
-      <c r="F416"/>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="19"/>
-      <c r="B417" s="19"/>
-      <c r="C417" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="D417" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E417" s="21"/>
-      <c r="F417"/>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="19"/>
-      <c r="B418" s="19"/>
-      <c r="C418" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D418" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E418" s="21"/>
-      <c r="F418"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="19"/>
-      <c r="B419" s="19"/>
-      <c r="C419" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D419" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E419" s="21"/>
-      <c r="F419"/>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="19">
-        <v>52</v>
-      </c>
-      <c r="B420" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C420" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D420" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E420" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="F420" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="19"/>
-      <c r="B421" s="19"/>
-      <c r="C421" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D421" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E421" s="21"/>
-      <c r="F421" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="19"/>
-      <c r="B422" s="19"/>
-      <c r="C422" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D422" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E422" s="21"/>
-      <c r="F422"/>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="19"/>
-      <c r="B423" s="19"/>
-      <c r="C423" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D423" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E423" s="21"/>
-      <c r="F423"/>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="19"/>
-      <c r="B424" s="19"/>
-      <c r="C424" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D424" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E424" s="21"/>
-      <c r="F424"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="19"/>
-      <c r="B425" s="19"/>
-      <c r="C425" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="D425" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E425" s="21"/>
-      <c r="F425"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="19"/>
-      <c r="B426" s="19"/>
-      <c r="C426" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D426" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E426" s="21"/>
-      <c r="F426"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="19"/>
-      <c r="B427" s="19"/>
-      <c r="C427" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D427" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E427" s="21"/>
-      <c r="F427"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="19"/>
-      <c r="B428" s="19"/>
-      <c r="C428" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D428" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E428" s="21"/>
-      <c r="F428"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="19">
-        <v>53</v>
-      </c>
-      <c r="B429" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C429" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D429" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E429" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="F429" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="19"/>
-      <c r="B430" s="19"/>
-      <c r="C430" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D430" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E430" s="21"/>
-      <c r="F430" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="19"/>
-      <c r="B431" s="19"/>
-      <c r="C431" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D431" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E431" s="21"/>
-      <c r="F431"/>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="19"/>
-      <c r="B432" s="19"/>
-      <c r="C432" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="D432" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E432" s="21"/>
-      <c r="F432"/>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="19"/>
-      <c r="B433" s="19"/>
-      <c r="C433" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D433" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E433" s="21"/>
-      <c r="F433"/>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="19"/>
-      <c r="B434" s="19"/>
-      <c r="C434" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D434" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E434" s="21"/>
-      <c r="F434"/>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="19"/>
-      <c r="B435" s="19"/>
-      <c r="C435" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D435" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E435" s="21"/>
-      <c r="F435"/>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="19"/>
-      <c r="B436" s="19"/>
-      <c r="C436" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D436" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E436" s="21"/>
-      <c r="F436"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="19"/>
-      <c r="B437" s="19"/>
-      <c r="C437" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D437" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E437" s="21"/>
-      <c r="F437"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="19"/>
-      <c r="B438" s="19"/>
-      <c r="C438" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="D438" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E438" s="21"/>
-      <c r="F438"/>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="19"/>
-      <c r="B439" s="19"/>
-      <c r="C439" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D439" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E439" s="21"/>
-      <c r="F439"/>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="19"/>
-      <c r="B440" s="19"/>
-      <c r="C440" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D440" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E440" s="21"/>
-      <c r="F440"/>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="19"/>
-      <c r="B441" s="19"/>
-      <c r="C441" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D441" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E441" s="21"/>
-      <c r="F441"/>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="19"/>
-      <c r="B442" s="19"/>
-      <c r="C442" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D442" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E442" s="21"/>
-      <c r="F442"/>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="19"/>
-      <c r="B443" s="19"/>
-      <c r="C443" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D443" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E443" s="21"/>
-      <c r="F443"/>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="19"/>
-      <c r="B444" s="19"/>
-      <c r="C444" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="D444" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E444" s="21"/>
-      <c r="F444"/>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="19">
-        <v>54</v>
-      </c>
-      <c r="B445" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C445" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="D445" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E445" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="F445" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="19"/>
-      <c r="B446" s="19"/>
-      <c r="C446" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D446" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E446" s="14"/>
-      <c r="F446"/>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="19"/>
-      <c r="B447" s="19"/>
-      <c r="C447" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="D447" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E447" s="14"/>
-      <c r="F447"/>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="19"/>
-      <c r="B448" s="19"/>
-      <c r="C448" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D448" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E448" s="14"/>
-      <c r="F448"/>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="19"/>
-      <c r="B449" s="19"/>
-      <c r="C449" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D449" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E449" s="14"/>
-      <c r="F449"/>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="19"/>
-      <c r="B450" s="19"/>
-      <c r="C450" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="D450" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E450" s="14"/>
-      <c r="F450"/>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451"/>
-      <c r="B451"/>
-      <c r="C451"/>
-      <c r="D451"/>
-      <c r="E451"/>
-      <c r="F451"/>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452"/>
-      <c r="B452"/>
-      <c r="C452"/>
-      <c r="D452"/>
-      <c r="E452"/>
-      <c r="F452"/>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453"/>
-      <c r="B453"/>
-      <c r="C453"/>
-      <c r="D453"/>
-      <c r="E453"/>
-      <c r="F453"/>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454"/>
-      <c r="B454"/>
-      <c r="C454"/>
-      <c r="D454"/>
-      <c r="E454"/>
-      <c r="F454"/>
+      <c r="D457" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E457" s="16"/>
+      <c r="F457"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458"/>
+      <c r="B458"/>
+      <c r="C458"/>
+      <c r="D458"/>
+      <c r="E458"/>
+      <c r="F458"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459"/>
+      <c r="B459"/>
+      <c r="C459"/>
+      <c r="D459"/>
+      <c r="E459"/>
+      <c r="F459"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460"/>
+      <c r="B460"/>
+      <c r="C460"/>
+      <c r="D460"/>
+      <c r="E460"/>
+      <c r="F460"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461"/>
+      <c r="B461"/>
+      <c r="C461"/>
+      <c r="D461"/>
+      <c r="E461"/>
+      <c r="F461"/>
     </row>
   </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="A445:A450"/>
-    <mergeCell ref="B445:B450"/>
-    <mergeCell ref="E445:E450"/>
-    <mergeCell ref="A411:A419"/>
-    <mergeCell ref="B411:B419"/>
-    <mergeCell ref="E411:E419"/>
-    <mergeCell ref="A420:A428"/>
-    <mergeCell ref="B420:B428"/>
-    <mergeCell ref="E420:E428"/>
-    <mergeCell ref="A429:A444"/>
-    <mergeCell ref="B429:B444"/>
-    <mergeCell ref="E429:E444"/>
-    <mergeCell ref="A283:A290"/>
-    <mergeCell ref="B283:B290"/>
-    <mergeCell ref="E283:E290"/>
-    <mergeCell ref="A392:A400"/>
-    <mergeCell ref="B392:B400"/>
-    <mergeCell ref="E392:E400"/>
-    <mergeCell ref="A401:A410"/>
-    <mergeCell ref="B401:B410"/>
-    <mergeCell ref="E401:E410"/>
-    <mergeCell ref="B291:B299"/>
-    <mergeCell ref="A291:A299"/>
-    <mergeCell ref="E291:E299"/>
-    <mergeCell ref="A371:A381"/>
-    <mergeCell ref="B371:B381"/>
-    <mergeCell ref="E371:E381"/>
-    <mergeCell ref="A382:A391"/>
-    <mergeCell ref="B382:B391"/>
-    <mergeCell ref="E382:E391"/>
-    <mergeCell ref="B362:B370"/>
-    <mergeCell ref="A362:A370"/>
-    <mergeCell ref="E362:E370"/>
-    <mergeCell ref="B345:B353"/>
-    <mergeCell ref="A345:A353"/>
-    <mergeCell ref="E345:E353"/>
-    <mergeCell ref="B354:B361"/>
-    <mergeCell ref="A354:A361"/>
-    <mergeCell ref="E354:E361"/>
-    <mergeCell ref="A181:A187"/>
-    <mergeCell ref="B181:B187"/>
-    <mergeCell ref="E181:E187"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="B188:B196"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="A337:A344"/>
-    <mergeCell ref="B337:B344"/>
-    <mergeCell ref="E337:E344"/>
-    <mergeCell ref="B319:B327"/>
-    <mergeCell ref="A319:A327"/>
-    <mergeCell ref="E319:E327"/>
-    <mergeCell ref="B328:B336"/>
-    <mergeCell ref="A328:A336"/>
-    <mergeCell ref="E328:E336"/>
-    <mergeCell ref="B311:B318"/>
-    <mergeCell ref="A311:A318"/>
-    <mergeCell ref="E311:E318"/>
-    <mergeCell ref="B300:B310"/>
-    <mergeCell ref="A300:A310"/>
-    <mergeCell ref="E300:E310"/>
-    <mergeCell ref="E214:E222"/>
-    <mergeCell ref="A223:A229"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="A197:A205"/>
-    <mergeCell ref="B197:B205"/>
-    <mergeCell ref="E197:E205"/>
-    <mergeCell ref="A206:A213"/>
-    <mergeCell ref="B206:B213"/>
-    <mergeCell ref="E206:E213"/>
+  <mergeCells count="161">
+    <mergeCell ref="A391:A398"/>
+    <mergeCell ref="B391:B398"/>
+    <mergeCell ref="E391:E398"/>
+    <mergeCell ref="A283:A289"/>
+    <mergeCell ref="B283:B289"/>
+    <mergeCell ref="E283:E289"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="A149:A156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A160:A170"/>
+    <mergeCell ref="A171:A180"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A87"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="E149:E156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="B160:B170"/>
+    <mergeCell ref="E160:E170"/>
+    <mergeCell ref="B171:B180"/>
+    <mergeCell ref="E171:E178"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="E124:E130"/>
+    <mergeCell ref="B131:B138"/>
+    <mergeCell ref="E131:E138"/>
+    <mergeCell ref="B139:B148"/>
+    <mergeCell ref="E139:E148"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="B77:B87"/>
+    <mergeCell ref="E77:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="E88:E95"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="E68:E76"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="E27:E34"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="E2:E9"/>
@@ -8187,70 +8317,73 @@
     <mergeCell ref="E239:E247"/>
     <mergeCell ref="A214:A222"/>
     <mergeCell ref="B214:B222"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="E10:E18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="B77:B87"/>
-    <mergeCell ref="E77:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="E88:E95"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="E68:E76"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="E124:E130"/>
-    <mergeCell ref="B131:B138"/>
-    <mergeCell ref="E131:E138"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="E139:E148"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="E149:E156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="B160:B170"/>
-    <mergeCell ref="E160:E170"/>
-    <mergeCell ref="B171:B180"/>
-    <mergeCell ref="E171:E178"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A77:A87"/>
-    <mergeCell ref="A88:A96"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="A149:A156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="A160:A170"/>
-    <mergeCell ref="A171:A180"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="E214:E222"/>
+    <mergeCell ref="A223:A229"/>
+    <mergeCell ref="B223:B229"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="A197:A205"/>
+    <mergeCell ref="B197:B205"/>
+    <mergeCell ref="E197:E205"/>
+    <mergeCell ref="A206:A213"/>
+    <mergeCell ref="B206:B213"/>
+    <mergeCell ref="E206:E213"/>
+    <mergeCell ref="B353:B360"/>
+    <mergeCell ref="A353:A360"/>
+    <mergeCell ref="E353:E360"/>
+    <mergeCell ref="A181:A187"/>
+    <mergeCell ref="B181:B187"/>
+    <mergeCell ref="E181:E187"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="B188:B196"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="A336:A343"/>
+    <mergeCell ref="B336:B343"/>
+    <mergeCell ref="E336:E343"/>
+    <mergeCell ref="B318:B326"/>
+    <mergeCell ref="A318:A326"/>
+    <mergeCell ref="E318:E326"/>
+    <mergeCell ref="B327:B335"/>
+    <mergeCell ref="A327:A335"/>
+    <mergeCell ref="E327:E335"/>
+    <mergeCell ref="B310:B317"/>
+    <mergeCell ref="A310:A317"/>
+    <mergeCell ref="E310:E317"/>
+    <mergeCell ref="B299:B309"/>
+    <mergeCell ref="A299:A309"/>
+    <mergeCell ref="E299:E309"/>
+    <mergeCell ref="A399:A407"/>
+    <mergeCell ref="B399:B407"/>
+    <mergeCell ref="E399:E407"/>
+    <mergeCell ref="A408:A417"/>
+    <mergeCell ref="B408:B417"/>
+    <mergeCell ref="E408:E417"/>
+    <mergeCell ref="B290:B298"/>
+    <mergeCell ref="A290:A298"/>
+    <mergeCell ref="E290:E298"/>
+    <mergeCell ref="A370:A380"/>
+    <mergeCell ref="B370:B380"/>
+    <mergeCell ref="E370:E380"/>
+    <mergeCell ref="A381:A390"/>
+    <mergeCell ref="B381:B390"/>
+    <mergeCell ref="E381:E390"/>
+    <mergeCell ref="B361:B369"/>
+    <mergeCell ref="A361:A369"/>
+    <mergeCell ref="E361:E369"/>
+    <mergeCell ref="B344:B352"/>
+    <mergeCell ref="A344:A352"/>
+    <mergeCell ref="E344:E352"/>
+    <mergeCell ref="A452:A457"/>
+    <mergeCell ref="B452:B457"/>
+    <mergeCell ref="E452:E457"/>
+    <mergeCell ref="A418:A426"/>
+    <mergeCell ref="B418:B426"/>
+    <mergeCell ref="E418:E426"/>
+    <mergeCell ref="A427:A435"/>
+    <mergeCell ref="B427:B435"/>
+    <mergeCell ref="E427:E435"/>
+    <mergeCell ref="A436:A451"/>
+    <mergeCell ref="B436:B451"/>
+    <mergeCell ref="E436:E451"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/物资募集/物资募捐统计.xlsx
+++ b/doc/物资募集/物资募捐统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="446">
   <si>
     <t>需求机构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1776,6 +1776,26 @@
   </si>
   <si>
     <t>面屏（材质轻便，容易消毒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北科技学院附属第二医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医用外科口罩（应符合YY0469-2010）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护服（应符合GB19082-2003《医用一次性防护服技术要求》）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省咸宁市温泉城区马柏大道168号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13907240867/毛老师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1843,7 +1863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,10 +1904,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1901,14 +1924,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2214,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F461"/>
+  <dimension ref="A1:F460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="C290" sqref="A290:XFD297"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A452" sqref="A452:A457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2252,10 +2275,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -2264,7 +2287,7 @@
       <c r="D2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>177</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2272,86 +2295,86 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="10" t="s">
         <v>361</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="10" t="s">
         <v>363</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="10" t="s">
         <v>356</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="10" t="s">
         <v>364</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="10" t="s">
         <v>357</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>358</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
         <v>359</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="22" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2360,7 +2383,7 @@
       <c r="D10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="22" t="s">
         <v>183</v>
       </c>
       <c r="F10" t="s">
@@ -2368,114 +2391,114 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="22"/>
       <c r="F11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="10" t="s">
         <v>186</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="22"/>
       <c r="F12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="10" t="s">
         <v>362</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="22"/>
       <c r="F13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="22"/>
       <c r="F14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="10" t="s">
         <v>360</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="22"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="22"/>
       <c r="F16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="22"/>
       <c r="F17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="22"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="22" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2484,7 +2507,7 @@
       <c r="D19" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="22" t="s">
         <v>196</v>
       </c>
       <c r="F19" t="s">
@@ -2492,96 +2515,96 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="10" t="s">
         <v>198</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="22"/>
       <c r="F20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="22"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="22"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="10" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="22"/>
       <c r="F23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="10" t="s">
         <v>192</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="22"/>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="22"/>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="22"/>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="21">
         <v>4</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>201</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2590,7 +2613,7 @@
       <c r="D27" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="22" t="s">
         <v>202</v>
       </c>
       <c r="F27" t="s">
@@ -2598,96 +2621,96 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="22"/>
       <c r="F28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="22"/>
       <c r="F29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="10" t="s">
         <v>200</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="22"/>
       <c r="F30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="10" t="s">
         <v>206</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="22"/>
       <c r="F31"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="22"/>
       <c r="F32"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="10" t="s">
         <v>193</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="22"/>
       <c r="F33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="10" t="s">
         <v>208</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="22"/>
       <c r="F34"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="10" t="s">
         <v>210</v>
       </c>
@@ -2698,10 +2721,10 @@
       <c r="F35"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="21">
         <v>5</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="22" t="s">
         <v>211</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -2710,7 +2733,7 @@
       <c r="D36" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="22" t="s">
         <v>213</v>
       </c>
       <c r="F36" t="s">
@@ -2718,94 +2741,94 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="22"/>
       <c r="F37" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="22"/>
       <c r="F38"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="10" t="s">
         <v>218</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="22"/>
       <c r="F39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="22"/>
       <c r="F40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="22"/>
       <c r="F41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="22"/>
       <c r="F42"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="10" t="s">
         <v>222</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="22"/>
       <c r="F43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="10" t="s">
         <v>223</v>
       </c>
@@ -2816,10 +2839,10 @@
       <c r="F44"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
-        <v>6</v>
-      </c>
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="21">
+        <v>6</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>224</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -2828,7 +2851,7 @@
       <c r="D45" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="22" t="s">
         <v>225</v>
       </c>
       <c r="F45" t="s">
@@ -2836,98 +2859,98 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="22"/>
       <c r="F46" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E47" s="16"/>
+      <c r="E47" s="22"/>
       <c r="F47" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="10" t="s">
         <v>218</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="22"/>
       <c r="F48"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="22"/>
       <c r="F49"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="10" t="s">
         <v>229</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="22"/>
       <c r="F50"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="22"/>
       <c r="F51"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="16"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="22"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+      <c r="A53" s="21">
         <v>7</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="22" t="s">
         <v>232</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -2936,7 +2959,7 @@
       <c r="D53" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="22" t="s">
         <v>234</v>
       </c>
       <c r="F53" t="s">
@@ -2944,98 +2967,98 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="10" t="s">
         <v>236</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="22"/>
       <c r="F54" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="10" t="s">
         <v>238</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="22"/>
       <c r="F55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="22"/>
       <c r="F56"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="22"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="22"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="22"/>
       <c r="F59"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E60" s="16"/>
+      <c r="E60" s="22"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
+      <c r="A61" s="21">
         <v>8</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="22" t="s">
         <v>241</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -3044,7 +3067,7 @@
       <c r="D61" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="22" t="s">
         <v>243</v>
       </c>
       <c r="F61" t="s">
@@ -3052,88 +3075,88 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="10" t="s">
         <v>245</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E62" s="16"/>
+      <c r="E62" s="22"/>
       <c r="F62" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E63" s="16"/>
+      <c r="E63" s="22"/>
       <c r="F63" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="10" t="s">
         <v>249</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="22"/>
       <c r="F64" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="10" t="s">
         <v>251</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="22"/>
       <c r="F65"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="10" t="s">
         <v>252</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="22"/>
       <c r="F66"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="22"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="20">
+      <c r="A68" s="21">
         <v>9</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="22" t="s">
         <v>254</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -3142,7 +3165,7 @@
       <c r="D68" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="22" t="s">
         <v>255</v>
       </c>
       <c r="F68" t="s">
@@ -3150,110 +3173,110 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="16"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="22"/>
       <c r="F69" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="16"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="10" t="s">
         <v>259</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="22"/>
       <c r="F70" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="16"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="22"/>
       <c r="F71"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="16"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="22"/>
       <c r="F72"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="16"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="22"/>
       <c r="F73"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="22"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="16"/>
+      <c r="E75" s="22"/>
       <c r="F75"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="16"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="22"/>
       <c r="F76"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
+      <c r="A77" s="21">
         <v>10</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="22" t="s">
         <v>263</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -3262,7 +3285,7 @@
       <c r="D77" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="22" t="s">
         <v>265</v>
       </c>
       <c r="F77" t="s">
@@ -3270,132 +3293,132 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="10" t="s">
         <v>259</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E78" s="16"/>
+      <c r="E78" s="22"/>
       <c r="F78" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="16"/>
+      <c r="E79" s="22"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="16"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E80" s="16"/>
+      <c r="E80" s="22"/>
       <c r="F80"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="16"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="10" t="s">
         <v>269</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="16"/>
+      <c r="E81" s="22"/>
       <c r="F81"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="16"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E82" s="16"/>
+      <c r="E82" s="22"/>
       <c r="F82"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E83" s="16"/>
+      <c r="E83" s="22"/>
       <c r="F83"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="16"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E84" s="16"/>
+      <c r="E84" s="22"/>
       <c r="F84"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
-      <c r="B85" s="16"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E85" s="16"/>
+      <c r="E85" s="22"/>
       <c r="F85"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="10" t="s">
         <v>270</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E86" s="16"/>
+      <c r="E86" s="22"/>
       <c r="F86"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="10" t="s">
         <v>271</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E87" s="16"/>
+      <c r="E87" s="22"/>
       <c r="F87"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="20">
+      <c r="A88" s="21">
         <v>11</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="22" t="s">
         <v>272</v>
       </c>
       <c r="C88" s="10" t="s">
@@ -3404,7 +3427,7 @@
       <c r="D88" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="22" t="s">
         <v>273</v>
       </c>
       <c r="F88" t="s">
@@ -3412,92 +3435,92 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="16"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="10" t="s">
         <v>275</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E89" s="16"/>
+      <c r="E89" s="22"/>
       <c r="F89"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="16"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="10" t="s">
         <v>259</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E90" s="16"/>
+      <c r="E90" s="22"/>
       <c r="F90"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="16"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="10" t="s">
         <v>261</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E91" s="16"/>
+      <c r="E91" s="22"/>
       <c r="F91"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
-      <c r="B92" s="16"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="16"/>
+      <c r="E92" s="22"/>
       <c r="F92"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="B93" s="16"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="16"/>
+      <c r="E93" s="22"/>
       <c r="F93"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
-      <c r="B94" s="16"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E94" s="16"/>
+      <c r="E94" s="22"/>
       <c r="F94"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
-      <c r="B95" s="16"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E95" s="16"/>
+      <c r="E95" s="22"/>
       <c r="F95"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
-      <c r="B96" s="16"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="10" t="s">
         <v>219</v>
       </c>
@@ -3508,10 +3531,10 @@
       <c r="F96"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="20">
+      <c r="A97" s="21">
         <v>12</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="22" t="s">
         <v>276</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -3520,7 +3543,7 @@
       <c r="D97" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="22" t="s">
         <v>278</v>
       </c>
       <c r="F97" t="s">
@@ -3528,84 +3551,84 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="16"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="10" t="s">
         <v>257</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E98" s="16"/>
+      <c r="E98" s="22"/>
       <c r="F98" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E99" s="16"/>
+      <c r="E99" s="22"/>
       <c r="F99"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E100" s="16"/>
+      <c r="E100" s="22"/>
       <c r="F100"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E101" s="16"/>
+      <c r="E101" s="22"/>
       <c r="F101"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="16"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="16"/>
+      <c r="E102" s="22"/>
       <c r="F102"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="16"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E103" s="16"/>
+      <c r="E103" s="22"/>
       <c r="F103"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
+      <c r="A104" s="21">
         <v>13</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="22" t="s">
         <v>282</v>
       </c>
       <c r="C104" s="10" t="s">
@@ -3622,8 +3645,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="B105" s="16"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="10" t="s">
         <v>285</v>
       </c>
@@ -3638,46 +3661,46 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="16"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="10" t="s">
         <v>288</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E106" s="16"/>
+      <c r="E106" s="22"/>
       <c r="F106"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="16"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="10" t="s">
         <v>268</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E107" s="16"/>
+      <c r="E107" s="22"/>
       <c r="F107"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
-      <c r="B108" s="16"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E108" s="16"/>
+      <c r="E108" s="22"/>
       <c r="F108"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
+      <c r="A109" s="21">
         <v>14</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="22" t="s">
         <v>289</v>
       </c>
       <c r="C109" s="10" t="s">
@@ -3686,7 +3709,7 @@
       <c r="D109" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="22" t="s">
         <v>290</v>
       </c>
       <c r="F109" t="s">
@@ -3694,82 +3717,82 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="10" t="s">
         <v>292</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E110" s="16"/>
+      <c r="E110" s="22"/>
       <c r="F110"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="B111" s="16"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E111" s="16"/>
+      <c r="E111" s="22"/>
       <c r="F111"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="16"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="10" t="s">
         <v>294</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E112" s="16"/>
+      <c r="E112" s="22"/>
       <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="16"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="10" t="s">
         <v>295</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E113" s="16"/>
+      <c r="E113" s="22"/>
       <c r="F113"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="16"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E114" s="16"/>
+      <c r="E114" s="22"/>
       <c r="F114"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="16"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E115" s="16"/>
+      <c r="E115" s="22"/>
       <c r="F115"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
+      <c r="A116" s="21">
         <v>15</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="22" t="s">
         <v>296</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -3786,8 +3809,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="16"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="10" t="s">
         <v>293</v>
       </c>
@@ -3800,82 +3823,82 @@
       <c r="F117"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="16"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E118" s="16"/>
+      <c r="E118" s="22"/>
       <c r="F118"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
-      <c r="B119" s="16"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="10" t="s">
         <v>300</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E119" s="16"/>
+      <c r="E119" s="22"/>
       <c r="F119"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="B120" s="16"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="10" t="s">
         <v>301</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E120" s="16"/>
+      <c r="E120" s="22"/>
       <c r="F120"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
-      <c r="B121" s="16"/>
+      <c r="A121" s="21"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E121" s="16"/>
+      <c r="E121" s="22"/>
       <c r="F121"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="16"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="10" t="s">
         <v>302</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E122" s="16"/>
+      <c r="E122" s="22"/>
       <c r="F122"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E123" s="16"/>
+      <c r="E123" s="22"/>
       <c r="F123"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="20">
+      <c r="A124" s="21">
         <v>16</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="22" t="s">
         <v>303</v>
       </c>
       <c r="C124" s="10" t="s">
@@ -3884,7 +3907,7 @@
       <c r="D124" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="22" t="s">
         <v>305</v>
       </c>
       <c r="F124" t="s">
@@ -3892,86 +3915,86 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
-      <c r="B125" s="16"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="10" t="s">
         <v>307</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E125" s="16"/>
+      <c r="E125" s="22"/>
       <c r="F125" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="10" t="s">
         <v>309</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E126" s="16"/>
+      <c r="E126" s="22"/>
       <c r="F126" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
-      <c r="B127" s="16"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E127" s="16"/>
+      <c r="E127" s="22"/>
       <c r="F127"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
-      <c r="B128" s="16"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="10" t="s">
         <v>277</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E128" s="16"/>
+      <c r="E128" s="22"/>
       <c r="F128"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
-      <c r="B129" s="16"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="10" t="s">
         <v>262</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E129" s="16"/>
+      <c r="E129" s="22"/>
       <c r="F129"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="10" t="s">
         <v>311</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E130" s="16"/>
+      <c r="E130" s="22"/>
       <c r="F130"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="20">
+      <c r="A131" s="21">
         <v>17</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="22" t="s">
         <v>312</v>
       </c>
       <c r="C131" s="10" t="s">
@@ -3980,7 +4003,7 @@
       <c r="D131" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="22" t="s">
         <v>313</v>
       </c>
       <c r="F131" t="s">
@@ -3988,96 +4011,96 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="10" t="s">
         <v>304</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E132" s="16"/>
+      <c r="E132" s="22"/>
       <c r="F132" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E133" s="16"/>
+      <c r="E133" s="22"/>
       <c r="F133"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="10" t="s">
         <v>294</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E134" s="16"/>
+      <c r="E134" s="22"/>
       <c r="F134"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="10" t="s">
         <v>295</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E135" s="16"/>
+      <c r="E135" s="22"/>
       <c r="F135"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
-      <c r="B136" s="16"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E136" s="16"/>
+      <c r="E136" s="22"/>
       <c r="F136"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="16"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E137" s="16"/>
+      <c r="E137" s="22"/>
       <c r="F137"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="10" t="s">
         <v>316</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E138" s="16"/>
+      <c r="E138" s="22"/>
       <c r="F138"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
+      <c r="A139" s="21">
         <v>18</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="22" t="s">
         <v>317</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -4086,7 +4109,7 @@
       <c r="D139" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="22" t="s">
         <v>318</v>
       </c>
       <c r="F139" t="s">
@@ -4094,124 +4117,124 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
-      <c r="B140" s="16"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="10" t="s">
         <v>320</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E140" s="16"/>
+      <c r="E140" s="22"/>
       <c r="F140" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="16"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="10" t="s">
         <v>322</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E141" s="16"/>
+      <c r="E141" s="22"/>
       <c r="F141" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="16"/>
+      <c r="A142" s="21"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="10" t="s">
         <v>231</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="16"/>
+      <c r="E142" s="22"/>
       <c r="F142" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="10" t="s">
         <v>295</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E143" s="16"/>
+      <c r="E143" s="22"/>
       <c r="F143"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="10" t="s">
         <v>325</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E144" s="16"/>
+      <c r="E144" s="22"/>
       <c r="F144"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="10" t="s">
         <v>316</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E145" s="16"/>
+      <c r="E145" s="22"/>
       <c r="F145"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="21"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="10" t="s">
         <v>253</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E146" s="16"/>
+      <c r="E146" s="22"/>
       <c r="F146"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
-      <c r="B147" s="16"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="10" t="s">
         <v>326</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E147" s="16"/>
+      <c r="E147" s="22"/>
       <c r="F147"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
-      <c r="B148" s="16"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="10" t="s">
         <v>327</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E148" s="16"/>
+      <c r="E148" s="22"/>
       <c r="F148"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="20">
+      <c r="A149" s="21">
         <v>19</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="22" t="s">
         <v>328</v>
       </c>
       <c r="C149" s="10" t="s">
@@ -4220,7 +4243,7 @@
       <c r="D149">
         <v>100000</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="22" t="s">
         <v>330</v>
       </c>
       <c r="F149" t="s">
@@ -4228,94 +4251,94 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
-      <c r="B150" s="16"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="10" t="s">
         <v>332</v>
       </c>
       <c r="D150">
         <v>10000</v>
       </c>
-      <c r="E150" s="16"/>
+      <c r="E150" s="22"/>
       <c r="F150"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
-      <c r="B151" s="16"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="10" t="s">
         <v>333</v>
       </c>
       <c r="D151">
         <v>200000</v>
       </c>
-      <c r="E151" s="16"/>
+      <c r="E151" s="22"/>
       <c r="F151"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="16"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D152">
         <v>1000</v>
       </c>
-      <c r="E152" s="16"/>
+      <c r="E152" s="22"/>
       <c r="F152"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="16"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D153">
         <v>1000</v>
       </c>
-      <c r="E153" s="16"/>
+      <c r="E153" s="22"/>
       <c r="F153"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
-      <c r="B154" s="16"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="10" t="s">
         <v>334</v>
       </c>
       <c r="D154">
         <v>1000</v>
       </c>
-      <c r="E154" s="16"/>
+      <c r="E154" s="22"/>
       <c r="F154"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
-      <c r="B155" s="16"/>
+      <c r="A155" s="21"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="10" t="s">
         <v>335</v>
       </c>
       <c r="D155">
         <v>1000</v>
       </c>
-      <c r="E155" s="16"/>
+      <c r="E155" s="22"/>
       <c r="F155"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
-      <c r="B156" s="16"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="10" t="s">
         <v>336</v>
       </c>
       <c r="D156">
         <v>10000</v>
       </c>
-      <c r="E156" s="16"/>
+      <c r="E156" s="22"/>
       <c r="F156"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="20">
+      <c r="A157" s="21">
         <v>20</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="22" t="s">
         <v>337</v>
       </c>
       <c r="C157" s="10" t="s">
@@ -4324,7 +4347,7 @@
       <c r="D157" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="22" t="s">
         <v>339</v>
       </c>
       <c r="F157" s="10" t="s">
@@ -4332,36 +4355,36 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
-      <c r="B158" s="16"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="10" t="s">
         <v>341</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E158" s="16"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="10" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
-      <c r="B159" s="16"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="10" t="s">
         <v>343</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E159" s="16"/>
+      <c r="E159" s="22"/>
       <c r="F159"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="20">
+      <c r="A160" s="21">
         <v>21</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="22" t="s">
         <v>344</v>
       </c>
       <c r="C160" s="10" t="s">
@@ -4370,7 +4393,7 @@
       <c r="D160" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="22" t="s">
         <v>345</v>
       </c>
       <c r="F160" t="s">
@@ -4378,134 +4401,134 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
-      <c r="B161" s="16"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E161" s="16"/>
+      <c r="E161" s="22"/>
       <c r="F161" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
-      <c r="B162" s="16"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="10" t="s">
         <v>348</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E162" s="16"/>
+      <c r="E162" s="22"/>
       <c r="F162" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
-      <c r="B163" s="16"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="10" t="s">
         <v>350</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E163" s="16"/>
+      <c r="E163" s="22"/>
       <c r="F163"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="16"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E164" s="16"/>
+      <c r="E164" s="22"/>
       <c r="F164"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="16"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="10" t="s">
         <v>343</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E165" s="16"/>
+      <c r="E165" s="22"/>
       <c r="F165"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="16"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E166" s="16"/>
+      <c r="E166" s="22"/>
       <c r="F166"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
-      <c r="B167" s="16"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="10" t="s">
         <v>240</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E167" s="16"/>
+      <c r="E167" s="22"/>
       <c r="F167"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
-      <c r="B168" s="16"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E168" s="16"/>
+      <c r="E168" s="22"/>
       <c r="F168"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
-      <c r="B169" s="16"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="10" t="s">
         <v>351</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E169" s="16"/>
+      <c r="E169" s="22"/>
       <c r="F169"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
-      <c r="B170" s="16"/>
+      <c r="A170" s="21"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="10" t="s">
         <v>341</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E170" s="16"/>
+      <c r="E170" s="22"/>
       <c r="F170"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="20">
+      <c r="A171" s="21">
         <v>22</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="22" t="s">
         <v>352</v>
       </c>
       <c r="C171" s="10" t="s">
@@ -4514,7 +4537,7 @@
       <c r="D171" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="22" t="s">
         <v>353</v>
       </c>
       <c r="F171" t="s">
@@ -4522,118 +4545,118 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
-      <c r="B172" s="16"/>
+      <c r="A172" s="21"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="10" t="s">
         <v>292</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E172" s="16"/>
+      <c r="E172" s="22"/>
       <c r="F172"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
-      <c r="B173" s="16"/>
+      <c r="A173" s="21"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="10" t="s">
         <v>293</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E173" s="16"/>
+      <c r="E173" s="22"/>
       <c r="F173"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
-      <c r="B174" s="16"/>
+      <c r="A174" s="21"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E174" s="16"/>
+      <c r="E174" s="22"/>
       <c r="F174"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
-      <c r="B175" s="16"/>
+      <c r="A175" s="21"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="10" t="s">
         <v>355</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E175" s="16"/>
+      <c r="E175" s="22"/>
       <c r="F175"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
-      <c r="B176" s="16"/>
+      <c r="A176" s="21"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="10" t="s">
         <v>210</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E176" s="16"/>
+      <c r="E176" s="22"/>
       <c r="F176"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
-      <c r="B177" s="16"/>
+      <c r="A177" s="21"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E177" s="16"/>
+      <c r="E177" s="22"/>
       <c r="F177"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
-      <c r="B178" s="16"/>
+      <c r="A178" s="21"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="10" t="s">
         <v>316</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E178" s="16"/>
+      <c r="E178" s="22"/>
       <c r="F178"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
-      <c r="B179" s="16"/>
+      <c r="A179" s="21"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="10" t="s">
         <v>301</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E179" s="16"/>
+      <c r="E179" s="22"/>
       <c r="F179"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
-      <c r="B180" s="16"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E180" s="16"/>
+      <c r="E180" s="22"/>
       <c r="F180"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="20">
+      <c r="A181" s="21">
         <v>23</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C181" s="9" t="s">
@@ -4642,7 +4665,7 @@
       <c r="D181" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E181" s="20" t="s">
+      <c r="E181" s="21" t="s">
         <v>74</v>
       </c>
       <c r="F181" s="9" t="s">
@@ -4650,84 +4673,84 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-      <c r="B182" s="20"/>
+      <c r="A182" s="21"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E182" s="20"/>
+      <c r="E182" s="21"/>
       <c r="F182" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
-      <c r="B183" s="20"/>
+      <c r="A183" s="21"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E183" s="20"/>
+      <c r="E183" s="21"/>
       <c r="F183" s="9"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E184" s="20"/>
+      <c r="E184" s="21"/>
       <c r="F184" s="9"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
-      <c r="B185" s="20"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E185" s="20"/>
+      <c r="E185" s="21"/>
       <c r="F185" s="9"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
-      <c r="B186" s="20"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E186" s="20"/>
+      <c r="E186" s="21"/>
       <c r="F186" s="9"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
-      <c r="B187" s="20"/>
+      <c r="A187" s="21"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E187" s="20"/>
+      <c r="E187" s="21"/>
       <c r="F187" s="9"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="20">
+      <c r="A188" s="21">
         <v>24</v>
       </c>
-      <c r="B188" s="20" t="s">
+      <c r="B188" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C188" s="9" t="s">
@@ -4736,7 +4759,7 @@
       <c r="D188" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E188" s="20" t="s">
+      <c r="E188" s="21" t="s">
         <v>86</v>
       </c>
       <c r="F188" s="9" t="s">
@@ -4744,108 +4767,108 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
-      <c r="B189" s="20"/>
+      <c r="A189" s="21"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E189" s="20"/>
+      <c r="E189" s="21"/>
       <c r="F189" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="20"/>
-      <c r="B190" s="20"/>
+      <c r="A190" s="21"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E190" s="20"/>
+      <c r="E190" s="21"/>
       <c r="F190" s="9"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
-      <c r="B191" s="20"/>
+      <c r="A191" s="21"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E191" s="20"/>
+      <c r="E191" s="21"/>
       <c r="F191" s="9"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
-      <c r="B192" s="20"/>
+      <c r="A192" s="21"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E192" s="20"/>
+      <c r="E192" s="21"/>
       <c r="F192" s="9"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="21"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E193" s="20"/>
+      <c r="E193" s="21"/>
       <c r="F193" s="9"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
-      <c r="B194" s="20"/>
+      <c r="A194" s="21"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E194" s="20"/>
+      <c r="E194" s="21"/>
       <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="21"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E195" s="20"/>
+      <c r="E195" s="21"/>
       <c r="F195" s="9"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="20"/>
-      <c r="B196" s="20"/>
+      <c r="A196" s="21"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E196" s="20"/>
+      <c r="E196" s="21"/>
       <c r="F196" s="9"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="20">
+      <c r="A197" s="21">
         <v>25</v>
       </c>
-      <c r="B197" s="20" t="s">
+      <c r="B197" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C197" s="9" t="s">
@@ -4854,7 +4877,7 @@
       <c r="D197" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E197" s="20" t="s">
+      <c r="E197" s="21" t="s">
         <v>99</v>
       </c>
       <c r="F197" s="9" t="s">
@@ -4862,108 +4885,108 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
-      <c r="B198" s="20"/>
+      <c r="A198" s="21"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E198" s="20"/>
+      <c r="E198" s="21"/>
       <c r="F198" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="21"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E199" s="20"/>
+      <c r="E199" s="21"/>
       <c r="F199" s="9"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
-      <c r="B200" s="20"/>
+      <c r="A200" s="21"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E200" s="20"/>
+      <c r="E200" s="21"/>
       <c r="F200" s="9"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
+      <c r="A201" s="21"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E201" s="20"/>
+      <c r="E201" s="21"/>
       <c r="F201" s="9"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
-      <c r="B202" s="20"/>
+      <c r="A202" s="21"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E202" s="20"/>
+      <c r="E202" s="21"/>
       <c r="F202" s="9"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
-      <c r="B203" s="20"/>
+      <c r="A203" s="21"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E203" s="20"/>
+      <c r="E203" s="21"/>
       <c r="F203" s="9"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
-      <c r="B204" s="20"/>
+      <c r="A204" s="21"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E204" s="20"/>
+      <c r="E204" s="21"/>
       <c r="F204" s="9"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
-      <c r="B205" s="20"/>
+      <c r="A205" s="21"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E205" s="20"/>
+      <c r="E205" s="21"/>
       <c r="F205" s="9"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="20">
+      <c r="A206" s="21">
         <v>26</v>
       </c>
-      <c r="B206" s="20" t="s">
+      <c r="B206" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C206" s="9" t="s">
@@ -4972,7 +4995,7 @@
       <c r="D206" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E206" s="22" t="s">
+      <c r="E206" s="23" t="s">
         <v>107</v>
       </c>
       <c r="F206" s="9" t="s">
@@ -4980,96 +5003,96 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
-      <c r="B207" s="20"/>
+      <c r="A207" s="21"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E207" s="22"/>
+      <c r="E207" s="23"/>
       <c r="F207" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
-      <c r="B208" s="20"/>
+      <c r="A208" s="21"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E208" s="22"/>
+      <c r="E208" s="23"/>
       <c r="F208" s="9"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
-      <c r="B209" s="20"/>
+      <c r="A209" s="21"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E209" s="22"/>
+      <c r="E209" s="23"/>
       <c r="F209" s="9"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
-      <c r="B210" s="20"/>
+      <c r="A210" s="21"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E210" s="22"/>
+      <c r="E210" s="23"/>
       <c r="F210" s="9"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
-      <c r="B211" s="20"/>
+      <c r="A211" s="21"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E211" s="22"/>
+      <c r="E211" s="23"/>
       <c r="F211" s="9"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="20"/>
+      <c r="A212" s="21"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E212" s="22"/>
+      <c r="E212" s="23"/>
       <c r="F212" s="9"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
-      <c r="B213" s="20"/>
+      <c r="A213" s="21"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E213" s="22"/>
+      <c r="E213" s="23"/>
       <c r="F213" s="9"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="20">
+      <c r="A214" s="21">
         <v>27</v>
       </c>
-      <c r="B214" s="20" t="s">
+      <c r="B214" s="21" t="s">
         <v>115</v>
       </c>
       <c r="C214" s="9" t="s">
@@ -5078,7 +5101,7 @@
       <c r="D214" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E214" s="22" t="s">
+      <c r="E214" s="23" t="s">
         <v>116</v>
       </c>
       <c r="F214" s="9" t="s">
@@ -5086,106 +5109,106 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="20"/>
+      <c r="A215" s="21"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E215" s="22"/>
+      <c r="E215" s="23"/>
       <c r="F215" s="9"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
-      <c r="B216" s="20"/>
+      <c r="A216" s="21"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E216" s="22"/>
+      <c r="E216" s="23"/>
       <c r="F216" s="9"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
-      <c r="B217" s="20"/>
+      <c r="A217" s="21"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E217" s="22"/>
+      <c r="E217" s="23"/>
       <c r="F217" s="9"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
-      <c r="B218" s="20"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E218" s="22"/>
+      <c r="E218" s="23"/>
       <c r="F218" s="9"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
-      <c r="B219" s="20"/>
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E219" s="22"/>
+      <c r="E219" s="23"/>
       <c r="F219" s="9"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
-      <c r="B220" s="20"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E220" s="22"/>
+      <c r="E220" s="23"/>
       <c r="F220" s="9"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
-      <c r="B221" s="20"/>
+      <c r="A221" s="21"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E221" s="22"/>
+      <c r="E221" s="23"/>
       <c r="F221" s="9"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
-      <c r="B222" s="20"/>
+      <c r="A222" s="21"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E222" s="22"/>
+      <c r="E222" s="23"/>
       <c r="F222" s="9"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="20">
+      <c r="A223" s="21">
         <v>28</v>
       </c>
-      <c r="B223" s="20" t="s">
+      <c r="B223" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C223" s="9" t="s">
@@ -5194,7 +5217,7 @@
       <c r="D223" s="9">
         <v>5000</v>
       </c>
-      <c r="E223" s="22" t="s">
+      <c r="E223" s="23" t="s">
         <v>120</v>
       </c>
       <c r="F223" s="9" t="s">
@@ -5202,84 +5225,84 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
-      <c r="B224" s="20"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D224" s="9">
         <v>20000</v>
       </c>
-      <c r="E224" s="22"/>
+      <c r="E224" s="23"/>
       <c r="F224" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
-      <c r="B225" s="20"/>
+      <c r="A225" s="21"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D225" s="9">
         <v>20000</v>
       </c>
-      <c r="E225" s="22"/>
+      <c r="E225" s="23"/>
       <c r="F225" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
-      <c r="B226" s="20"/>
+      <c r="A226" s="21"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="9" t="s">
         <v>126</v>
       </c>
       <c r="D226" s="9">
         <v>5000</v>
       </c>
-      <c r="E226" s="22"/>
+      <c r="E226" s="23"/>
       <c r="F226" s="9"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
-      <c r="B227" s="20"/>
+      <c r="A227" s="21"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D227" s="9">
         <v>20000</v>
       </c>
-      <c r="E227" s="22"/>
+      <c r="E227" s="23"/>
       <c r="F227" s="9"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
-      <c r="B228" s="20"/>
+      <c r="A228" s="21"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D228" s="9">
         <v>10000</v>
       </c>
-      <c r="E228" s="22"/>
+      <c r="E228" s="23"/>
       <c r="F228" s="9"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
-      <c r="B229" s="20"/>
+      <c r="A229" s="21"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D229" s="9"/>
-      <c r="E229" s="22"/>
+      <c r="E229" s="23"/>
       <c r="F229" s="9"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="20">
+      <c r="A230" s="21">
         <v>29</v>
       </c>
-      <c r="B230" s="20" t="s">
+      <c r="B230" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C230" s="9" t="s">
@@ -5288,7 +5311,7 @@
       <c r="D230" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E230" s="22" t="s">
+      <c r="E230" s="23" t="s">
         <v>130</v>
       </c>
       <c r="F230" s="9" t="s">
@@ -5296,108 +5319,108 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
-      <c r="B231" s="20"/>
+      <c r="A231" s="21"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E231" s="22"/>
+      <c r="E231" s="23"/>
       <c r="F231" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-      <c r="B232" s="20"/>
+      <c r="A232" s="21"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E232" s="22"/>
+      <c r="E232" s="23"/>
       <c r="F232" s="9"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="20"/>
+      <c r="A233" s="21"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E233" s="22"/>
+      <c r="E233" s="23"/>
       <c r="F233" s="9"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
-      <c r="B234" s="20"/>
+      <c r="A234" s="21"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E234" s="22"/>
+      <c r="E234" s="23"/>
       <c r="F234" s="9"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
-      <c r="B235" s="20"/>
+      <c r="A235" s="21"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E235" s="22"/>
+      <c r="E235" s="23"/>
       <c r="F235" s="9"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
-      <c r="B236" s="20"/>
+      <c r="A236" s="21"/>
+      <c r="B236" s="21"/>
       <c r="C236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E236" s="22"/>
+      <c r="E236" s="23"/>
       <c r="F236" s="9"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
-      <c r="B237" s="20"/>
+      <c r="A237" s="21"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E237" s="22"/>
+      <c r="E237" s="23"/>
       <c r="F237" s="9"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
-      <c r="B238" s="20"/>
+      <c r="A238" s="21"/>
+      <c r="B238" s="21"/>
       <c r="C238" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E238" s="22"/>
+      <c r="E238" s="23"/>
       <c r="F238" s="9"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="20">
+      <c r="A239" s="21">
         <v>30</v>
       </c>
-      <c r="B239" s="20" t="s">
+      <c r="B239" s="21" t="s">
         <v>133</v>
       </c>
       <c r="C239" s="9" t="s">
@@ -5406,7 +5429,7 @@
       <c r="D239" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E239" s="20" t="s">
+      <c r="E239" s="21" t="s">
         <v>134</v>
       </c>
       <c r="F239" s="9" t="s">
@@ -5414,106 +5437,106 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
-      <c r="B240" s="20"/>
+      <c r="A240" s="21"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E240" s="20"/>
+      <c r="E240" s="21"/>
       <c r="F240" s="9"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
-      <c r="B241" s="20"/>
+      <c r="A241" s="21"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E241" s="20"/>
+      <c r="E241" s="21"/>
       <c r="F241" s="9"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
-      <c r="B242" s="20"/>
+      <c r="A242" s="21"/>
+      <c r="B242" s="21"/>
       <c r="C242" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E242" s="20"/>
+      <c r="E242" s="21"/>
       <c r="F242" s="9"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
-      <c r="B243" s="20"/>
+      <c r="A243" s="21"/>
+      <c r="B243" s="21"/>
       <c r="C243" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E243" s="20"/>
+      <c r="E243" s="21"/>
       <c r="F243" s="9"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
-      <c r="B244" s="20"/>
+      <c r="A244" s="21"/>
+      <c r="B244" s="21"/>
       <c r="C244" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E244" s="20"/>
+      <c r="E244" s="21"/>
       <c r="F244" s="9"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
-      <c r="B245" s="20"/>
+      <c r="A245" s="21"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E245" s="20"/>
+      <c r="E245" s="21"/>
       <c r="F245" s="9"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
-      <c r="B246" s="20"/>
+      <c r="A246" s="21"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E246" s="20"/>
+      <c r="E246" s="21"/>
       <c r="F246" s="9"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
-      <c r="B247" s="20"/>
+      <c r="A247" s="21"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E247" s="20"/>
+      <c r="E247" s="21"/>
       <c r="F247" s="9"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="20">
+      <c r="A248" s="21">
         <v>31</v>
       </c>
-      <c r="B248" s="20" t="s">
+      <c r="B248" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C248" s="9" t="s">
@@ -5522,7 +5545,7 @@
       <c r="D248" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E248" s="20" t="s">
+      <c r="E248" s="21" t="s">
         <v>137</v>
       </c>
       <c r="F248" s="9" t="s">
@@ -5530,96 +5553,96 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="20"/>
-      <c r="B249" s="20"/>
+      <c r="A249" s="21"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E249" s="20"/>
+      <c r="E249" s="21"/>
       <c r="F249" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
-      <c r="B250" s="20"/>
+      <c r="A250" s="21"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E250" s="20"/>
+      <c r="E250" s="21"/>
       <c r="F250" s="9"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
-      <c r="B251" s="20"/>
+      <c r="A251" s="21"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E251" s="20"/>
+      <c r="E251" s="21"/>
       <c r="F251" s="9"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
-      <c r="B252" s="20"/>
+      <c r="A252" s="21"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E252" s="20"/>
+      <c r="E252" s="21"/>
       <c r="F252" s="9"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
-      <c r="B253" s="20"/>
+      <c r="A253" s="21"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E253" s="20"/>
+      <c r="E253" s="21"/>
       <c r="F253" s="9"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
-      <c r="B254" s="20"/>
+      <c r="A254" s="21"/>
+      <c r="B254" s="21"/>
       <c r="C254" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E254" s="20"/>
+      <c r="E254" s="21"/>
       <c r="F254" s="9"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
-      <c r="B255" s="20"/>
+      <c r="A255" s="21"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E255" s="20"/>
+      <c r="E255" s="21"/>
       <c r="F255" s="9"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="20">
+      <c r="A256" s="21">
         <v>32</v>
       </c>
-      <c r="B256" s="20" t="s">
+      <c r="B256" s="21" t="s">
         <v>140</v>
       </c>
       <c r="C256" s="9" t="s">
@@ -5628,7 +5651,7 @@
       <c r="D256" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E256" s="20" t="s">
+      <c r="E256" s="21" t="s">
         <v>142</v>
       </c>
       <c r="F256" s="9" t="s">
@@ -5636,126 +5659,126 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
-      <c r="B257" s="20"/>
+      <c r="A257" s="21"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E257" s="20"/>
+      <c r="E257" s="21"/>
       <c r="F257" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
-      <c r="B258" s="20"/>
+      <c r="A258" s="21"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="9" t="s">
         <v>145</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E258" s="20"/>
+      <c r="E258" s="21"/>
       <c r="F258" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
-      <c r="B259" s="20"/>
+      <c r="A259" s="21"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="9" t="s">
         <v>147</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E259" s="20"/>
+      <c r="E259" s="21"/>
       <c r="F259" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
-      <c r="B260" s="20"/>
+      <c r="A260" s="21"/>
+      <c r="B260" s="21"/>
       <c r="C260" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E260" s="20"/>
+      <c r="E260" s="21"/>
       <c r="F260" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="20"/>
-      <c r="B261" s="20"/>
+      <c r="A261" s="21"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E261" s="20"/>
+      <c r="E261" s="21"/>
       <c r="F261" s="9"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
-      <c r="B262" s="20"/>
+      <c r="A262" s="21"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E262" s="20"/>
+      <c r="E262" s="21"/>
       <c r="F262" s="9"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
-      <c r="B263" s="20"/>
+      <c r="A263" s="21"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E263" s="20"/>
+      <c r="E263" s="21"/>
       <c r="F263" s="9"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
-      <c r="B264" s="20"/>
+      <c r="A264" s="21"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E264" s="20"/>
+      <c r="E264" s="21"/>
       <c r="F264" s="9"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
-      <c r="B265" s="20"/>
+      <c r="A265" s="21"/>
+      <c r="B265" s="21"/>
       <c r="C265" s="9" t="s">
         <v>152</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E265" s="20"/>
+      <c r="E265" s="21"/>
       <c r="F265" s="9"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="20">
+      <c r="A266" s="21">
         <v>33</v>
       </c>
-      <c r="B266" s="20" t="s">
+      <c r="B266" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C266" s="9" t="s">
@@ -5764,7 +5787,7 @@
       <c r="D266" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E266" s="20" t="s">
+      <c r="E266" s="21" t="s">
         <v>154</v>
       </c>
       <c r="F266" s="9" t="s">
@@ -5772,118 +5795,118 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
-      <c r="B267" s="20"/>
+      <c r="A267" s="21"/>
+      <c r="B267" s="21"/>
       <c r="C267" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E267" s="20"/>
+      <c r="E267" s="21"/>
       <c r="F267" s="9"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="20"/>
-      <c r="B268" s="20"/>
+      <c r="A268" s="21"/>
+      <c r="B268" s="21"/>
       <c r="C268" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E268" s="20"/>
+      <c r="E268" s="21"/>
       <c r="F268" s="9"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
-      <c r="B269" s="20"/>
+      <c r="A269" s="21"/>
+      <c r="B269" s="21"/>
       <c r="C269" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E269" s="20"/>
+      <c r="E269" s="21"/>
       <c r="F269" s="9"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="20"/>
-      <c r="B270" s="20"/>
+      <c r="A270" s="21"/>
+      <c r="B270" s="21"/>
       <c r="C270" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E270" s="20"/>
+      <c r="E270" s="21"/>
       <c r="F270" s="9"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
-      <c r="B271" s="20"/>
+      <c r="A271" s="21"/>
+      <c r="B271" s="21"/>
       <c r="C271" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E271" s="20"/>
+      <c r="E271" s="21"/>
       <c r="F271" s="9"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
-      <c r="B272" s="20"/>
+      <c r="A272" s="21"/>
+      <c r="B272" s="21"/>
       <c r="C272" s="9" t="s">
         <v>156</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E272" s="20"/>
+      <c r="E272" s="21"/>
       <c r="F272" s="9"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
-      <c r="B273" s="20"/>
+      <c r="A273" s="21"/>
+      <c r="B273" s="21"/>
       <c r="C273" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E273" s="20"/>
+      <c r="E273" s="21"/>
       <c r="F273" s="9"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="20"/>
-      <c r="B274" s="20"/>
+      <c r="A274" s="21"/>
+      <c r="B274" s="21"/>
       <c r="C274" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E274" s="20"/>
+      <c r="E274" s="21"/>
       <c r="F274" s="9"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
-      <c r="B275" s="20"/>
+      <c r="A275" s="21"/>
+      <c r="B275" s="21"/>
       <c r="C275" s="9" t="s">
         <v>158</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E275" s="20"/>
+      <c r="E275" s="21"/>
       <c r="F275" s="9"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="20">
+      <c r="A276" s="21">
         <v>34</v>
       </c>
-      <c r="B276" s="20" t="s">
+      <c r="B276" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C276" s="9" t="s">
@@ -5892,7 +5915,7 @@
       <c r="D276" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E276" s="20" t="s">
+      <c r="E276" s="21" t="s">
         <v>160</v>
       </c>
       <c r="F276" s="9" t="s">
@@ -5900,84 +5923,84 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="20"/>
-      <c r="B277" s="20"/>
+      <c r="A277" s="21"/>
+      <c r="B277" s="21"/>
       <c r="C277" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E277" s="20"/>
+      <c r="E277" s="21"/>
       <c r="F277" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
-      <c r="B278" s="20"/>
+      <c r="A278" s="21"/>
+      <c r="B278" s="21"/>
       <c r="C278" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E278" s="20"/>
+      <c r="E278" s="21"/>
       <c r="F278" s="9"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
-      <c r="B279" s="20"/>
+      <c r="A279" s="21"/>
+      <c r="B279" s="21"/>
       <c r="C279" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E279" s="20"/>
+      <c r="E279" s="21"/>
       <c r="F279" s="9"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="20"/>
-      <c r="B280" s="20"/>
+      <c r="A280" s="21"/>
+      <c r="B280" s="21"/>
       <c r="C280" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E280" s="20"/>
+      <c r="E280" s="21"/>
       <c r="F280" s="9"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
-      <c r="B281" s="20"/>
+      <c r="A281" s="21"/>
+      <c r="B281" s="21"/>
       <c r="C281" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E281" s="20"/>
+      <c r="E281" s="21"/>
       <c r="F281" s="9"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
-      <c r="B282" s="20"/>
+      <c r="A282" s="21"/>
+      <c r="B282" s="21"/>
       <c r="C282" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E282" s="20"/>
+      <c r="E282" s="21"/>
       <c r="F282" s="9"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="18">
+      <c r="A283" s="19">
         <v>35</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="19" t="s">
         <v>434</v>
       </c>
       <c r="C283" s="3" t="s">
@@ -5986,90 +6009,90 @@
       <c r="D283" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E283" s="19" t="s">
+      <c r="E283" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="F283" s="23">
+      <c r="F283" s="16">
         <v>17707254320</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="18"/>
-      <c r="B284" s="18"/>
+      <c r="A284" s="19"/>
+      <c r="B284" s="19"/>
       <c r="C284" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E284" s="19"/>
+      <c r="E284" s="20"/>
       <c r="F284" s="7"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="18"/>
-      <c r="B285" s="18"/>
+      <c r="A285" s="19"/>
+      <c r="B285" s="19"/>
       <c r="C285" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E285" s="19"/>
+      <c r="E285" s="20"/>
       <c r="F285" s="7"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="18"/>
-      <c r="B286" s="18"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="19"/>
       <c r="C286" s="3" t="s">
         <v>438</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E286" s="19"/>
+      <c r="E286" s="20"/>
       <c r="F286" s="7"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="18"/>
-      <c r="B287" s="18"/>
+      <c r="A287" s="19"/>
+      <c r="B287" s="19"/>
       <c r="C287" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E287" s="19"/>
+      <c r="E287" s="20"/>
       <c r="F287" s="7"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="18"/>
-      <c r="B288" s="18"/>
+      <c r="A288" s="19"/>
+      <c r="B288" s="19"/>
       <c r="C288" s="3" t="s">
         <v>439</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E288" s="19"/>
+      <c r="E288" s="20"/>
       <c r="F288" s="7"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="18"/>
-      <c r="B289" s="18"/>
+      <c r="A289" s="19"/>
+      <c r="B289" s="19"/>
       <c r="C289" s="3" t="s">
         <v>440</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E289" s="19"/>
+      <c r="E289" s="20"/>
       <c r="F289" s="7"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="18">
+      <c r="A290" s="19">
         <v>36</v>
       </c>
-      <c r="B290" s="18" t="s">
+      <c r="B290" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C290" s="5" t="s">
@@ -6078,7 +6101,7 @@
       <c r="D290" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E290" s="19" t="s">
+      <c r="E290" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F290" s="8" t="s">
@@ -6086,108 +6109,108 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="18"/>
-      <c r="B291" s="18"/>
+      <c r="A291" s="19"/>
+      <c r="B291" s="19"/>
       <c r="C291" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E291" s="19"/>
+      <c r="E291" s="20"/>
       <c r="F291" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="18"/>
-      <c r="B292" s="18"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="19"/>
       <c r="C292" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E292" s="19"/>
+      <c r="E292" s="20"/>
       <c r="F292" s="8"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="18"/>
-      <c r="B293" s="18"/>
+      <c r="A293" s="19"/>
+      <c r="B293" s="19"/>
       <c r="C293" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E293" s="19"/>
+      <c r="E293" s="20"/>
       <c r="F293" s="8"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="18"/>
-      <c r="B294" s="18"/>
+      <c r="A294" s="19"/>
+      <c r="B294" s="19"/>
       <c r="C294" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E294" s="19"/>
+      <c r="E294" s="20"/>
       <c r="F294" s="8"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="18"/>
-      <c r="B295" s="18"/>
+      <c r="A295" s="19"/>
+      <c r="B295" s="19"/>
       <c r="C295" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E295" s="19"/>
+      <c r="E295" s="20"/>
       <c r="F295" s="8"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="18"/>
-      <c r="B296" s="18"/>
+      <c r="A296" s="19"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E296" s="19"/>
+      <c r="E296" s="20"/>
       <c r="F296" s="8"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="18"/>
-      <c r="B297" s="18"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E297" s="19"/>
+      <c r="E297" s="20"/>
       <c r="F297" s="8"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="18"/>
-      <c r="B298" s="18"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E298" s="19"/>
+      <c r="E298" s="20"/>
       <c r="F298" s="8"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="18">
+      <c r="A299" s="19">
         <v>37</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="B299" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C299" s="3" t="s">
@@ -6196,7 +6219,7 @@
       <c r="D299" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E299" s="21" t="s">
+      <c r="E299" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F299" s="7" t="s">
@@ -6204,132 +6227,132 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="18"/>
-      <c r="B300" s="18"/>
+      <c r="A300" s="19"/>
+      <c r="B300" s="19"/>
       <c r="C300" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E300" s="21"/>
+      <c r="E300" s="24"/>
       <c r="F300" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="18"/>
-      <c r="B301" s="18"/>
+      <c r="A301" s="19"/>
+      <c r="B301" s="19"/>
       <c r="C301" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E301" s="21"/>
+      <c r="E301" s="24"/>
       <c r="F301" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="18"/>
-      <c r="B302" s="18"/>
+      <c r="A302" s="19"/>
+      <c r="B302" s="19"/>
       <c r="C302" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E302" s="21"/>
+      <c r="E302" s="24"/>
       <c r="F302" s="7"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="18"/>
-      <c r="B303" s="18"/>
+      <c r="A303" s="19"/>
+      <c r="B303" s="19"/>
       <c r="C303" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E303" s="21"/>
+      <c r="E303" s="24"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="18"/>
-      <c r="B304" s="18"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E304" s="21"/>
+      <c r="E304" s="24"/>
       <c r="F304" s="7"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="18"/>
-      <c r="B305" s="18"/>
+      <c r="A305" s="19"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E305" s="21"/>
+      <c r="E305" s="24"/>
       <c r="F305" s="7"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="18"/>
-      <c r="B306" s="18"/>
+      <c r="A306" s="19"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E306" s="21"/>
+      <c r="E306" s="24"/>
       <c r="F306" s="7"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="18"/>
-      <c r="B307" s="18"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E307" s="21"/>
+      <c r="E307" s="24"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="18"/>
-      <c r="B308" s="18"/>
+      <c r="A308" s="19"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E308" s="21"/>
+      <c r="E308" s="24"/>
       <c r="F308" s="7"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="18"/>
-      <c r="B309" s="18"/>
+      <c r="A309" s="19"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E309" s="21"/>
+      <c r="E309" s="24"/>
       <c r="F309" s="7"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="18">
+      <c r="A310" s="19">
         <v>38</v>
       </c>
-      <c r="B310" s="18" t="s">
+      <c r="B310" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C310" s="3" t="s">
@@ -6338,7 +6361,7 @@
       <c r="D310" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E310" s="21" t="s">
+      <c r="E310" s="24" t="s">
         <v>34</v>
       </c>
       <c r="F310" s="4" t="s">
@@ -6346,90 +6369,90 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="18"/>
-      <c r="B311" s="18"/>
+      <c r="A311" s="19"/>
+      <c r="B311" s="19"/>
       <c r="C311" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E311" s="21"/>
+      <c r="E311" s="24"/>
       <c r="F311" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="18"/>
-      <c r="B312" s="18"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="19"/>
       <c r="C312" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E312" s="21"/>
+      <c r="E312" s="24"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="18"/>
-      <c r="B313" s="18"/>
+      <c r="A313" s="19"/>
+      <c r="B313" s="19"/>
       <c r="C313" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E313" s="21"/>
+      <c r="E313" s="24"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="18"/>
-      <c r="B314" s="18"/>
+      <c r="A314" s="19"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E314" s="21"/>
+      <c r="E314" s="24"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="18"/>
-      <c r="B315" s="18"/>
+      <c r="A315" s="19"/>
+      <c r="B315" s="19"/>
       <c r="C315" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E315" s="21"/>
+      <c r="E315" s="24"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="18"/>
-      <c r="B316" s="18"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="19"/>
       <c r="C316" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E316" s="21"/>
+      <c r="E316" s="24"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="18"/>
-      <c r="B317" s="18"/>
+      <c r="A317" s="19"/>
+      <c r="B317" s="19"/>
       <c r="C317" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E317" s="21"/>
+      <c r="E317" s="24"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="18">
+      <c r="A318" s="19">
         <v>39</v>
       </c>
-      <c r="B318" s="18" t="s">
+      <c r="B318" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -6438,7 +6461,7 @@
       <c r="D318" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E318" s="21" t="s">
+      <c r="E318" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F318" s="4" t="s">
@@ -6446,98 +6469,98 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="18"/>
-      <c r="B319" s="18"/>
+      <c r="A319" s="19"/>
+      <c r="B319" s="19"/>
       <c r="C319" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E319" s="21"/>
+      <c r="E319" s="24"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="18"/>
-      <c r="B320" s="18"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="19"/>
       <c r="C320" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E320" s="21"/>
+      <c r="E320" s="24"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="18"/>
-      <c r="B321" s="18"/>
+      <c r="A321" s="19"/>
+      <c r="B321" s="19"/>
       <c r="C321" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E321" s="21"/>
+      <c r="E321" s="24"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="18"/>
-      <c r="B322" s="18"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="19"/>
       <c r="C322" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E322" s="21"/>
+      <c r="E322" s="24"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="18"/>
-      <c r="B323" s="18"/>
+      <c r="A323" s="19"/>
+      <c r="B323" s="19"/>
       <c r="C323" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E323" s="21"/>
+      <c r="E323" s="24"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="18"/>
-      <c r="B324" s="18"/>
+      <c r="A324" s="19"/>
+      <c r="B324" s="19"/>
       <c r="C324" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E324" s="21"/>
+      <c r="E324" s="24"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="18"/>
-      <c r="B325" s="18"/>
+      <c r="A325" s="19"/>
+      <c r="B325" s="19"/>
       <c r="C325" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E325" s="21"/>
+      <c r="E325" s="24"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="18"/>
-      <c r="B326" s="18"/>
+      <c r="A326" s="19"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E326" s="21"/>
+      <c r="E326" s="24"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="18">
+      <c r="A327" s="19">
         <v>40</v>
       </c>
-      <c r="B327" s="18" t="s">
+      <c r="B327" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C327" s="3" t="s">
@@ -6546,7 +6569,7 @@
       <c r="D327" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E327" s="19" t="s">
+      <c r="E327" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F327" s="4" t="s">
@@ -6554,98 +6577,98 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="18"/>
-      <c r="B328" s="18"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E328" s="19"/>
+      <c r="E328" s="20"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="18"/>
-      <c r="B329" s="18"/>
+      <c r="A329" s="19"/>
+      <c r="B329" s="19"/>
       <c r="C329" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E329" s="19"/>
+      <c r="E329" s="20"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="18"/>
-      <c r="B330" s="18"/>
+      <c r="A330" s="19"/>
+      <c r="B330" s="19"/>
       <c r="C330" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E330" s="19"/>
+      <c r="E330" s="20"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="18"/>
-      <c r="B331" s="18"/>
+      <c r="A331" s="19"/>
+      <c r="B331" s="19"/>
       <c r="C331" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E331" s="19"/>
+      <c r="E331" s="20"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="18"/>
-      <c r="B332" s="18"/>
+      <c r="A332" s="19"/>
+      <c r="B332" s="19"/>
       <c r="C332" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E332" s="19"/>
+      <c r="E332" s="20"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="18"/>
-      <c r="B333" s="18"/>
+      <c r="A333" s="19"/>
+      <c r="B333" s="19"/>
       <c r="C333" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E333" s="19"/>
+      <c r="E333" s="20"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="18"/>
-      <c r="B334" s="18"/>
+      <c r="A334" s="19"/>
+      <c r="B334" s="19"/>
       <c r="C334" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E334" s="19"/>
+      <c r="E334" s="20"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="18"/>
-      <c r="B335" s="18"/>
+      <c r="A335" s="19"/>
+      <c r="B335" s="19"/>
       <c r="C335" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E335" s="19"/>
+      <c r="E335" s="20"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="18">
+      <c r="A336" s="19">
         <v>41</v>
       </c>
-      <c r="B336" s="18" t="s">
+      <c r="B336" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C336" s="3" t="s">
@@ -6654,7 +6677,7 @@
       <c r="D336" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E336" s="21" t="s">
+      <c r="E336" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F336" s="4" t="s">
@@ -6662,87 +6685,87 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="18"/>
-      <c r="B337" s="18"/>
+      <c r="A337" s="19"/>
+      <c r="B337" s="19"/>
       <c r="C337" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E337" s="21"/>
+      <c r="E337" s="24"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="18"/>
-      <c r="B338" s="18"/>
+      <c r="A338" s="19"/>
+      <c r="B338" s="19"/>
       <c r="C338" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E338" s="21"/>
+      <c r="E338" s="24"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="18"/>
-      <c r="B339" s="18"/>
+      <c r="A339" s="19"/>
+      <c r="B339" s="19"/>
       <c r="C339" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E339" s="21"/>
+      <c r="E339" s="24"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="18"/>
-      <c r="B340" s="18"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="19"/>
       <c r="C340" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E340" s="21"/>
+      <c r="E340" s="24"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="18"/>
-      <c r="B341" s="18"/>
+      <c r="A341" s="19"/>
+      <c r="B341" s="19"/>
       <c r="C341" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E341" s="21"/>
+      <c r="E341" s="24"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="18"/>
-      <c r="B342" s="18"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="19"/>
       <c r="C342" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E342" s="21"/>
+      <c r="E342" s="24"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="18"/>
-      <c r="B343" s="18"/>
+      <c r="A343" s="19"/>
+      <c r="B343" s="19"/>
       <c r="C343" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E343" s="21"/>
+      <c r="E343" s="24"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="18">
+      <c r="A344" s="19">
         <v>42</v>
       </c>
-      <c r="B344" s="18" t="s">
+      <c r="B344" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -6751,7 +6774,7 @@
       <c r="D344" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E344" s="19" t="s">
+      <c r="E344" s="20" t="s">
         <v>55</v>
       </c>
       <c r="F344" s="4" t="s">
@@ -6759,98 +6782,98 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="18"/>
-      <c r="B345" s="18"/>
+      <c r="A345" s="19"/>
+      <c r="B345" s="19"/>
       <c r="C345" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E345" s="19"/>
+      <c r="E345" s="20"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="18"/>
-      <c r="B346" s="18"/>
+      <c r="A346" s="19"/>
+      <c r="B346" s="19"/>
       <c r="C346" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E346" s="19"/>
+      <c r="E346" s="20"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="18"/>
-      <c r="B347" s="18"/>
+      <c r="A347" s="19"/>
+      <c r="B347" s="19"/>
       <c r="C347" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E347" s="19"/>
+      <c r="E347" s="20"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="18"/>
-      <c r="B348" s="18"/>
+      <c r="A348" s="19"/>
+      <c r="B348" s="19"/>
       <c r="C348" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E348" s="19"/>
+      <c r="E348" s="20"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="18"/>
-      <c r="B349" s="18"/>
+      <c r="A349" s="19"/>
+      <c r="B349" s="19"/>
       <c r="C349" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E349" s="19"/>
+      <c r="E349" s="20"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="18"/>
-      <c r="B350" s="18"/>
+      <c r="A350" s="19"/>
+      <c r="B350" s="19"/>
       <c r="C350" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E350" s="19"/>
+      <c r="E350" s="20"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="18"/>
-      <c r="B351" s="18"/>
+      <c r="A351" s="19"/>
+      <c r="B351" s="19"/>
       <c r="C351" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E351" s="19"/>
+      <c r="E351" s="20"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="18"/>
-      <c r="B352" s="18"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="19"/>
       <c r="C352" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E352" s="19"/>
+      <c r="E352" s="20"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="18">
+      <c r="A353" s="19">
         <v>43</v>
       </c>
-      <c r="B353" s="18" t="s">
+      <c r="B353" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C353" s="3" t="s">
@@ -6859,7 +6882,7 @@
       <c r="D353" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E353" s="19" t="s">
+      <c r="E353" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F353" s="4" t="s">
@@ -6867,93 +6890,93 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="18"/>
-      <c r="B354" s="18"/>
+      <c r="A354" s="19"/>
+      <c r="B354" s="19"/>
       <c r="C354" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E354" s="19"/>
+      <c r="E354" s="20"/>
       <c r="F354" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="18"/>
-      <c r="B355" s="18"/>
+      <c r="A355" s="19"/>
+      <c r="B355" s="19"/>
       <c r="C355" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E355" s="19"/>
+      <c r="E355" s="20"/>
       <c r="F355" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="18"/>
-      <c r="B356" s="18"/>
+      <c r="A356" s="19"/>
+      <c r="B356" s="19"/>
       <c r="C356" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E356" s="19"/>
+      <c r="E356" s="20"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="18"/>
-      <c r="B357" s="18"/>
+      <c r="A357" s="19"/>
+      <c r="B357" s="19"/>
       <c r="C357" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E357" s="19"/>
+      <c r="E357" s="20"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="18"/>
-      <c r="B358" s="18"/>
+      <c r="A358" s="19"/>
+      <c r="B358" s="19"/>
       <c r="C358" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E358" s="19"/>
+      <c r="E358" s="20"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="18"/>
-      <c r="B359" s="18"/>
+      <c r="A359" s="19"/>
+      <c r="B359" s="19"/>
       <c r="C359" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E359" s="19"/>
+      <c r="E359" s="20"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="18"/>
-      <c r="B360" s="18"/>
+      <c r="A360" s="19"/>
+      <c r="B360" s="19"/>
       <c r="C360" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E360" s="19"/>
+      <c r="E360" s="20"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="18">
+      <c r="A361" s="19">
         <v>44</v>
       </c>
-      <c r="B361" s="18" t="s">
+      <c r="B361" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C361" s="5" t="s">
@@ -6962,7 +6985,7 @@
       <c r="D361" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E361" s="19" t="s">
+      <c r="E361" s="20" t="s">
         <v>64</v>
       </c>
       <c r="F361" s="4" t="s">
@@ -6970,104 +6993,104 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="18"/>
-      <c r="B362" s="18"/>
+      <c r="A362" s="19"/>
+      <c r="B362" s="19"/>
       <c r="C362" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E362" s="19"/>
+      <c r="E362" s="20"/>
       <c r="F362" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="18"/>
-      <c r="B363" s="18"/>
+      <c r="A363" s="19"/>
+      <c r="B363" s="19"/>
       <c r="C363" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E363" s="19"/>
+      <c r="E363" s="20"/>
       <c r="F363" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="18"/>
-      <c r="B364" s="18"/>
+      <c r="A364" s="19"/>
+      <c r="B364" s="19"/>
       <c r="C364" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E364" s="19"/>
+      <c r="E364" s="20"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="18"/>
-      <c r="B365" s="18"/>
+      <c r="A365" s="19"/>
+      <c r="B365" s="19"/>
       <c r="C365" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E365" s="19"/>
+      <c r="E365" s="20"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="18"/>
-      <c r="B366" s="18"/>
+      <c r="A366" s="19"/>
+      <c r="B366" s="19"/>
       <c r="C366" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E366" s="19"/>
+      <c r="E366" s="20"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="18"/>
-      <c r="B367" s="18"/>
+      <c r="A367" s="19"/>
+      <c r="B367" s="19"/>
       <c r="C367" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E367" s="19"/>
+      <c r="E367" s="20"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="18"/>
-      <c r="B368" s="18"/>
+      <c r="A368" s="19"/>
+      <c r="B368" s="19"/>
       <c r="C368" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E368" s="19"/>
+      <c r="E368" s="20"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="18"/>
-      <c r="B369" s="18"/>
+      <c r="A369" s="19"/>
+      <c r="B369" s="19"/>
       <c r="C369" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E369" s="19"/>
+      <c r="E369" s="20"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="18">
+      <c r="A370" s="19">
         <v>45</v>
       </c>
-      <c r="B370" s="18" t="s">
+      <c r="B370" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C370" s="3" t="s">
@@ -7076,7 +7099,7 @@
       <c r="D370" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E370" s="19" t="s">
+      <c r="E370" s="20" t="s">
         <v>164</v>
       </c>
       <c r="F370" s="4" t="s">
@@ -7084,123 +7107,123 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="18"/>
-      <c r="B371" s="18"/>
+      <c r="A371" s="19"/>
+      <c r="B371" s="19"/>
       <c r="C371" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E371" s="19"/>
+      <c r="E371" s="20"/>
       <c r="F371" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="18"/>
-      <c r="B372" s="18"/>
+      <c r="A372" s="19"/>
+      <c r="B372" s="19"/>
       <c r="C372" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E372" s="19"/>
+      <c r="E372" s="20"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="18"/>
-      <c r="B373" s="18"/>
+      <c r="A373" s="19"/>
+      <c r="B373" s="19"/>
       <c r="C373" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E373" s="19"/>
+      <c r="E373" s="20"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="18"/>
-      <c r="B374" s="18"/>
+      <c r="A374" s="19"/>
+      <c r="B374" s="19"/>
       <c r="C374" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E374" s="19"/>
+      <c r="E374" s="20"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="18"/>
-      <c r="B375" s="18"/>
+      <c r="A375" s="19"/>
+      <c r="B375" s="19"/>
       <c r="C375" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E375" s="19"/>
+      <c r="E375" s="20"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="18"/>
-      <c r="B376" s="18"/>
+      <c r="A376" s="19"/>
+      <c r="B376" s="19"/>
       <c r="C376" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E376" s="19"/>
+      <c r="E376" s="20"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="18"/>
-      <c r="B377" s="18"/>
+      <c r="A377" s="19"/>
+      <c r="B377" s="19"/>
       <c r="C377" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E377" s="19"/>
+      <c r="E377" s="20"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="18"/>
-      <c r="B378" s="18"/>
+      <c r="A378" s="19"/>
+      <c r="B378" s="19"/>
       <c r="C378" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E378" s="19"/>
+      <c r="E378" s="20"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="18"/>
-      <c r="B379" s="18"/>
+      <c r="A379" s="19"/>
+      <c r="B379" s="19"/>
       <c r="C379" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E379" s="19"/>
+      <c r="E379" s="20"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="18"/>
-      <c r="B380" s="18"/>
+      <c r="A380" s="19"/>
+      <c r="B380" s="19"/>
       <c r="C380" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E380" s="19"/>
+      <c r="E380" s="20"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="18">
+      <c r="A381" s="19">
         <v>46</v>
       </c>
-      <c r="B381" s="18" t="s">
+      <c r="B381" s="19" t="s">
         <v>167</v>
       </c>
       <c r="C381" s="3" t="s">
@@ -7209,7 +7232,7 @@
       <c r="D381" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E381" s="19" t="s">
+      <c r="E381" s="20" t="s">
         <v>168</v>
       </c>
       <c r="F381" s="4" t="s">
@@ -7217,115 +7240,115 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="18"/>
-      <c r="B382" s="18"/>
+      <c r="A382" s="19"/>
+      <c r="B382" s="19"/>
       <c r="C382" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E382" s="19"/>
+      <c r="E382" s="20"/>
       <c r="F382" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="18"/>
-      <c r="B383" s="18"/>
+      <c r="A383" s="19"/>
+      <c r="B383" s="19"/>
       <c r="C383" s="5" t="s">
         <v>171</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E383" s="19"/>
+      <c r="E383" s="20"/>
       <c r="F383" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="18"/>
-      <c r="B384" s="18"/>
+      <c r="A384" s="19"/>
+      <c r="B384" s="19"/>
       <c r="C384" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E384" s="19"/>
+      <c r="E384" s="20"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="18"/>
-      <c r="B385" s="18"/>
+      <c r="A385" s="19"/>
+      <c r="B385" s="19"/>
       <c r="C385" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E385" s="19"/>
+      <c r="E385" s="20"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="18"/>
-      <c r="B386" s="18"/>
+      <c r="A386" s="19"/>
+      <c r="B386" s="19"/>
       <c r="C386" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E386" s="19"/>
+      <c r="E386" s="20"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="18"/>
-      <c r="B387" s="18"/>
+      <c r="A387" s="19"/>
+      <c r="B387" s="19"/>
       <c r="C387" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E387" s="19"/>
+      <c r="E387" s="20"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="18"/>
-      <c r="B388" s="18"/>
+      <c r="A388" s="19"/>
+      <c r="B388" s="19"/>
       <c r="C388" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E388" s="19"/>
+      <c r="E388" s="20"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="18"/>
-      <c r="B389" s="18"/>
+      <c r="A389" s="19"/>
+      <c r="B389" s="19"/>
       <c r="C389" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E389" s="19"/>
+      <c r="E389" s="20"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="18"/>
-      <c r="B390" s="18"/>
+      <c r="A390" s="19"/>
+      <c r="B390" s="19"/>
       <c r="C390" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E390" s="19"/>
+      <c r="E390" s="20"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="15">
+      <c r="A391" s="17">
         <v>48</v>
       </c>
-      <c r="B391" s="15" t="s">
+      <c r="B391" s="17" t="s">
         <v>420</v>
       </c>
       <c r="C391" s="14" t="s">
@@ -7334,7 +7357,7 @@
       <c r="D391" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="E391" s="17" t="s">
+      <c r="E391" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F391" s="13" t="s">
@@ -7342,96 +7365,96 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="15"/>
-      <c r="B392" s="15"/>
+      <c r="A392" s="17"/>
+      <c r="B392" s="17"/>
       <c r="C392" s="14" t="s">
         <v>425</v>
       </c>
       <c r="D392" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="E392" s="17"/>
+      <c r="E392" s="18"/>
       <c r="F392" s="13" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="15"/>
-      <c r="B393" s="15"/>
+      <c r="A393" s="17"/>
+      <c r="B393" s="17"/>
       <c r="C393" s="14" t="s">
         <v>427</v>
       </c>
       <c r="D393" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E393" s="17"/>
+      <c r="E393" s="18"/>
       <c r="F393" s="13"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="15"/>
-      <c r="B394" s="15"/>
+      <c r="A394" s="17"/>
+      <c r="B394" s="17"/>
       <c r="C394" s="13" t="s">
         <v>429</v>
       </c>
       <c r="D394" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E394" s="17"/>
+      <c r="E394" s="18"/>
       <c r="F394"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="15"/>
-      <c r="B395" s="15"/>
+      <c r="A395" s="17"/>
+      <c r="B395" s="17"/>
       <c r="C395" s="13" t="s">
         <v>430</v>
       </c>
       <c r="D395" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E395" s="17"/>
+      <c r="E395" s="18"/>
       <c r="F395"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="15"/>
-      <c r="B396" s="15"/>
+      <c r="A396" s="17"/>
+      <c r="B396" s="17"/>
       <c r="C396" s="13" t="s">
         <v>431</v>
       </c>
       <c r="D396" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E396" s="17"/>
+      <c r="E396" s="18"/>
       <c r="F396"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="15"/>
-      <c r="B397" s="15"/>
+      <c r="A397" s="17"/>
+      <c r="B397" s="17"/>
       <c r="C397" s="13" t="s">
         <v>432</v>
       </c>
       <c r="D397" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E397" s="17"/>
+      <c r="E397" s="18"/>
       <c r="F397"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="15"/>
-      <c r="B398" s="15"/>
+      <c r="A398" s="17"/>
+      <c r="B398" s="17"/>
       <c r="C398" s="13" t="s">
         <v>433</v>
       </c>
       <c r="D398" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E398" s="17"/>
+      <c r="E398" s="18"/>
       <c r="F398"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="15">
+      <c r="A399" s="17">
         <v>49</v>
       </c>
-      <c r="B399" s="15" t="s">
+      <c r="B399" s="17" t="s">
         <v>365</v>
       </c>
       <c r="C399" s="11" t="s">
@@ -7440,7 +7463,7 @@
       <c r="D399" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E399" s="17" t="s">
+      <c r="E399" s="18" t="s">
         <v>368</v>
       </c>
       <c r="F399" t="s">
@@ -7448,106 +7471,106 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
-      <c r="B400" s="15"/>
+      <c r="A400" s="17"/>
+      <c r="B400" s="17"/>
       <c r="C400" s="14" t="s">
         <v>370</v>
       </c>
       <c r="D400" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E400" s="17"/>
+      <c r="E400" s="18"/>
       <c r="F400"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="15"/>
-      <c r="B401" s="15"/>
+      <c r="A401" s="17"/>
+      <c r="B401" s="17"/>
       <c r="C401" s="14" t="s">
         <v>371</v>
       </c>
       <c r="D401" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E401" s="17"/>
+      <c r="E401" s="18"/>
       <c r="F401"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="15"/>
-      <c r="B402" s="15"/>
+      <c r="A402" s="17"/>
+      <c r="B402" s="17"/>
       <c r="C402" s="11" t="s">
         <v>372</v>
       </c>
       <c r="D402" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E402" s="17"/>
+      <c r="E402" s="18"/>
       <c r="F402"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="15"/>
-      <c r="B403" s="15"/>
+      <c r="A403" s="17"/>
+      <c r="B403" s="17"/>
       <c r="C403" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D403" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E403" s="17"/>
+      <c r="E403" s="18"/>
       <c r="F403"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
-      <c r="B404" s="15"/>
+      <c r="A404" s="17"/>
+      <c r="B404" s="17"/>
       <c r="C404" s="14" t="s">
         <v>374</v>
       </c>
       <c r="D404" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E404" s="17"/>
+      <c r="E404" s="18"/>
       <c r="F404"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="15"/>
-      <c r="B405" s="15"/>
+      <c r="A405" s="17"/>
+      <c r="B405" s="17"/>
       <c r="C405" s="14" t="s">
         <v>375</v>
       </c>
       <c r="D405" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E405" s="17"/>
+      <c r="E405" s="18"/>
       <c r="F405"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="15"/>
-      <c r="B406" s="15"/>
+      <c r="A406" s="17"/>
+      <c r="B406" s="17"/>
       <c r="C406" s="14" t="s">
         <v>376</v>
       </c>
       <c r="D406" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E406" s="17"/>
+      <c r="E406" s="18"/>
       <c r="F406"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="15"/>
-      <c r="B407" s="15"/>
+      <c r="A407" s="17"/>
+      <c r="B407" s="17"/>
       <c r="C407" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D407" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E407" s="17"/>
+      <c r="E407" s="18"/>
       <c r="F407"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="15">
+      <c r="A408" s="17">
         <v>50</v>
       </c>
-      <c r="B408" s="15" t="s">
+      <c r="B408" s="17" t="s">
         <v>379</v>
       </c>
       <c r="C408" s="14" t="s">
@@ -7556,7 +7579,7 @@
       <c r="D408" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E408" s="17" t="s">
+      <c r="E408" s="18" t="s">
         <v>381</v>
       </c>
       <c r="F408" t="s">
@@ -7564,120 +7587,120 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="15"/>
-      <c r="B409" s="15"/>
+      <c r="A409" s="17"/>
+      <c r="B409" s="17"/>
       <c r="C409" s="14" t="s">
         <v>383</v>
       </c>
       <c r="D409" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E409" s="17"/>
+      <c r="E409" s="18"/>
       <c r="F409" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="15"/>
-      <c r="B410" s="15"/>
+      <c r="A410" s="17"/>
+      <c r="B410" s="17"/>
       <c r="C410" s="11" t="s">
         <v>385</v>
       </c>
       <c r="D410" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E410" s="17"/>
+      <c r="E410" s="18"/>
       <c r="F410"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="15"/>
-      <c r="B411" s="15"/>
+      <c r="A411" s="17"/>
+      <c r="B411" s="17"/>
       <c r="C411" s="11" t="s">
         <v>386</v>
       </c>
       <c r="D411" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E411" s="17"/>
+      <c r="E411" s="18"/>
       <c r="F411"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="15"/>
-      <c r="B412" s="15"/>
+      <c r="A412" s="17"/>
+      <c r="B412" s="17"/>
       <c r="C412" s="14" t="s">
         <v>387</v>
       </c>
       <c r="D412" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E412" s="17"/>
+      <c r="E412" s="18"/>
       <c r="F412"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="15"/>
-      <c r="B413" s="15"/>
+      <c r="A413" s="17"/>
+      <c r="B413" s="17"/>
       <c r="C413" s="14" t="s">
         <v>388</v>
       </c>
       <c r="D413" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E413" s="17"/>
+      <c r="E413" s="18"/>
       <c r="F413"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="15"/>
-      <c r="B414" s="15"/>
+      <c r="A414" s="17"/>
+      <c r="B414" s="17"/>
       <c r="C414" s="14" t="s">
         <v>389</v>
       </c>
       <c r="D414" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E414" s="17"/>
+      <c r="E414" s="18"/>
       <c r="F414"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="15"/>
-      <c r="B415" s="15"/>
+      <c r="A415" s="17"/>
+      <c r="B415" s="17"/>
       <c r="C415" s="14" t="s">
         <v>390</v>
       </c>
       <c r="D415" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E415" s="17"/>
+      <c r="E415" s="18"/>
       <c r="F415"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="15"/>
-      <c r="B416" s="15"/>
+      <c r="A416" s="17"/>
+      <c r="B416" s="17"/>
       <c r="C416" s="14" t="s">
         <v>391</v>
       </c>
       <c r="D416" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E416" s="17"/>
+      <c r="E416" s="18"/>
       <c r="F416"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="15"/>
-      <c r="B417" s="15"/>
+      <c r="A417" s="17"/>
+      <c r="B417" s="17"/>
       <c r="C417" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D417" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E417" s="17"/>
+      <c r="E417" s="18"/>
       <c r="F417"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="15">
+      <c r="A418" s="17">
         <v>51</v>
       </c>
-      <c r="B418" s="15" t="s">
+      <c r="B418" s="17" t="s">
         <v>393</v>
       </c>
       <c r="C418" s="14" t="s">
@@ -7686,7 +7709,7 @@
       <c r="D418" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E418" s="17" t="s">
+      <c r="E418" s="18" t="s">
         <v>394</v>
       </c>
       <c r="F418" t="s">
@@ -7694,106 +7717,106 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="15"/>
-      <c r="B419" s="15"/>
+      <c r="A419" s="17"/>
+      <c r="B419" s="17"/>
       <c r="C419" s="14" t="s">
         <v>387</v>
       </c>
       <c r="D419" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E419" s="17"/>
+      <c r="E419" s="18"/>
       <c r="F419"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="15"/>
-      <c r="B420" s="15"/>
+      <c r="A420" s="17"/>
+      <c r="B420" s="17"/>
       <c r="C420" s="14" t="s">
         <v>396</v>
       </c>
       <c r="D420" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E420" s="17"/>
+      <c r="E420" s="18"/>
       <c r="F420"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="15"/>
-      <c r="B421" s="15"/>
+      <c r="A421" s="17"/>
+      <c r="B421" s="17"/>
       <c r="C421" s="11" t="s">
         <v>397</v>
       </c>
       <c r="D421" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E421" s="17"/>
+      <c r="E421" s="18"/>
       <c r="F421"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="15"/>
-      <c r="B422" s="15"/>
+      <c r="A422" s="17"/>
+      <c r="B422" s="17"/>
       <c r="C422" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D422" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E422" s="17"/>
+      <c r="E422" s="18"/>
       <c r="F422"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="15"/>
-      <c r="B423" s="15"/>
+      <c r="A423" s="17"/>
+      <c r="B423" s="17"/>
       <c r="C423" s="14" t="s">
         <v>383</v>
       </c>
       <c r="D423" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E423" s="17"/>
+      <c r="E423" s="18"/>
       <c r="F423"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="15"/>
-      <c r="B424" s="15"/>
+      <c r="A424" s="17"/>
+      <c r="B424" s="17"/>
       <c r="C424" s="14" t="s">
         <v>398</v>
       </c>
       <c r="D424" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E424" s="17"/>
+      <c r="E424" s="18"/>
       <c r="F424"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="15"/>
-      <c r="B425" s="15"/>
+      <c r="A425" s="17"/>
+      <c r="B425" s="17"/>
       <c r="C425" s="14" t="s">
         <v>399</v>
       </c>
       <c r="D425" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E425" s="17"/>
+      <c r="E425" s="18"/>
       <c r="F425"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="15"/>
-      <c r="B426" s="15"/>
+      <c r="A426" s="17"/>
+      <c r="B426" s="17"/>
       <c r="C426" s="14" t="s">
         <v>391</v>
       </c>
       <c r="D426" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E426" s="17"/>
+      <c r="E426" s="18"/>
       <c r="F426"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="15">
+      <c r="A427" s="17">
         <v>52</v>
       </c>
-      <c r="B427" s="15" t="s">
+      <c r="B427" s="17" t="s">
         <v>400</v>
       </c>
       <c r="C427" s="14" t="s">
@@ -7802,7 +7825,7 @@
       <c r="D427" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E427" s="17" t="s">
+      <c r="E427" s="18" t="s">
         <v>401</v>
       </c>
       <c r="F427" t="s">
@@ -7810,108 +7833,108 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="15"/>
-      <c r="B428" s="15"/>
+      <c r="A428" s="17"/>
+      <c r="B428" s="17"/>
       <c r="C428" s="14" t="s">
         <v>403</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E428" s="17"/>
+      <c r="E428" s="18"/>
       <c r="F428" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="15"/>
-      <c r="B429" s="15"/>
+      <c r="A429" s="17"/>
+      <c r="B429" s="17"/>
       <c r="C429" s="11" t="s">
         <v>386</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E429" s="17"/>
+      <c r="E429" s="18"/>
       <c r="F429"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="15"/>
-      <c r="B430" s="15"/>
+      <c r="A430" s="17"/>
+      <c r="B430" s="17"/>
       <c r="C430" s="14" t="s">
         <v>405</v>
       </c>
       <c r="D430" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E430" s="17"/>
+      <c r="E430" s="18"/>
       <c r="F430"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="15"/>
-      <c r="B431" s="15"/>
+      <c r="A431" s="17"/>
+      <c r="B431" s="17"/>
       <c r="C431" s="14" t="s">
         <v>385</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E431" s="17"/>
+      <c r="E431" s="18"/>
       <c r="F431"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="15"/>
-      <c r="B432" s="15"/>
+      <c r="A432" s="17"/>
+      <c r="B432" s="17"/>
       <c r="C432" s="14" t="s">
         <v>388</v>
       </c>
       <c r="D432" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E432" s="17"/>
+      <c r="E432" s="18"/>
       <c r="F432"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="15"/>
-      <c r="B433" s="15"/>
+      <c r="A433" s="17"/>
+      <c r="B433" s="17"/>
       <c r="C433" s="14" t="s">
         <v>389</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E433" s="17"/>
+      <c r="E433" s="18"/>
       <c r="F433"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="15"/>
-      <c r="B434" s="15"/>
+      <c r="A434" s="17"/>
+      <c r="B434" s="17"/>
       <c r="C434" s="14" t="s">
         <v>391</v>
       </c>
       <c r="D434" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E434" s="17"/>
+      <c r="E434" s="18"/>
       <c r="F434"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="15"/>
-      <c r="B435" s="15"/>
+      <c r="A435" s="17"/>
+      <c r="B435" s="17"/>
       <c r="C435" s="14" t="s">
         <v>390</v>
       </c>
       <c r="D435" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E435" s="17"/>
+      <c r="E435" s="18"/>
       <c r="F435"/>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="15">
+      <c r="A436" s="17">
         <v>53</v>
       </c>
-      <c r="B436" s="15" t="s">
+      <c r="B436" s="17" t="s">
         <v>406</v>
       </c>
       <c r="C436" s="14" t="s">
@@ -7920,7 +7943,7 @@
       <c r="D436" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E436" s="17" t="s">
+      <c r="E436" s="18" t="s">
         <v>407</v>
       </c>
       <c r="F436" t="s">
@@ -7928,192 +7951,192 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="15"/>
-      <c r="B437" s="15"/>
+      <c r="A437" s="17"/>
+      <c r="B437" s="17"/>
       <c r="C437" s="14" t="s">
         <v>380</v>
       </c>
       <c r="D437" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E437" s="17"/>
+      <c r="E437" s="18"/>
       <c r="F437" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="15"/>
-      <c r="B438" s="15"/>
+      <c r="A438" s="17"/>
+      <c r="B438" s="17"/>
       <c r="C438" s="14" t="s">
         <v>403</v>
       </c>
       <c r="D438" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E438" s="17"/>
+      <c r="E438" s="18"/>
       <c r="F438"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="15"/>
-      <c r="B439" s="15"/>
+      <c r="A439" s="17"/>
+      <c r="B439" s="17"/>
       <c r="C439" s="11" t="s">
         <v>386</v>
       </c>
       <c r="D439" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E439" s="17"/>
+      <c r="E439" s="18"/>
       <c r="F439"/>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="15"/>
-      <c r="B440" s="15"/>
+      <c r="A440" s="17"/>
+      <c r="B440" s="17"/>
       <c r="C440" s="11" t="s">
         <v>388</v>
       </c>
       <c r="D440" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E440" s="17"/>
+      <c r="E440" s="18"/>
       <c r="F440"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="15"/>
-      <c r="B441" s="15"/>
+      <c r="A441" s="17"/>
+      <c r="B441" s="17"/>
       <c r="C441" s="14" t="s">
         <v>405</v>
       </c>
       <c r="D441" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E441" s="17"/>
+      <c r="E441" s="18"/>
       <c r="F441"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="15"/>
-      <c r="B442" s="15"/>
+      <c r="A442" s="17"/>
+      <c r="B442" s="17"/>
       <c r="C442" s="14" t="s">
         <v>389</v>
       </c>
       <c r="D442" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E442" s="17"/>
+      <c r="E442" s="18"/>
       <c r="F442"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="15"/>
-      <c r="B443" s="15"/>
+      <c r="A443" s="17"/>
+      <c r="B443" s="17"/>
       <c r="C443" s="14" t="s">
         <v>391</v>
       </c>
       <c r="D443" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E443" s="17"/>
+      <c r="E443" s="18"/>
       <c r="F443"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="15"/>
-      <c r="B444" s="15"/>
+      <c r="A444" s="17"/>
+      <c r="B444" s="17"/>
       <c r="C444" s="14" t="s">
         <v>390</v>
       </c>
       <c r="D444" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E444" s="17"/>
+      <c r="E444" s="18"/>
       <c r="F444"/>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="15"/>
-      <c r="B445" s="15"/>
+      <c r="A445" s="17"/>
+      <c r="B445" s="17"/>
       <c r="C445" s="14" t="s">
         <v>410</v>
       </c>
       <c r="D445" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E445" s="17"/>
+      <c r="E445" s="18"/>
       <c r="F445"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="15"/>
-      <c r="B446" s="15"/>
+      <c r="A446" s="17"/>
+      <c r="B446" s="17"/>
       <c r="C446" s="14" t="s">
         <v>411</v>
       </c>
       <c r="D446" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E446" s="17"/>
+      <c r="E446" s="18"/>
       <c r="F446"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="15"/>
-      <c r="B447" s="15"/>
+      <c r="A447" s="17"/>
+      <c r="B447" s="17"/>
       <c r="C447" s="14" t="s">
         <v>412</v>
       </c>
       <c r="D447" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E447" s="17"/>
+      <c r="E447" s="18"/>
       <c r="F447"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="15"/>
-      <c r="B448" s="15"/>
+      <c r="A448" s="17"/>
+      <c r="B448" s="17"/>
       <c r="C448" s="14" t="s">
         <v>413</v>
       </c>
       <c r="D448" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E448" s="17"/>
+      <c r="E448" s="18"/>
       <c r="F448"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="15"/>
-      <c r="B449" s="15"/>
+      <c r="A449" s="17"/>
+      <c r="B449" s="17"/>
       <c r="C449" s="14" t="s">
         <v>414</v>
       </c>
       <c r="D449" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E449" s="17"/>
+      <c r="E449" s="18"/>
       <c r="F449"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="15"/>
-      <c r="B450" s="15"/>
+      <c r="A450" s="17"/>
+      <c r="B450" s="17"/>
       <c r="C450" s="14" t="s">
         <v>415</v>
       </c>
       <c r="D450" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E450" s="17"/>
+      <c r="E450" s="18"/>
       <c r="F450"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="15"/>
-      <c r="B451" s="15"/>
+      <c r="A451" s="17"/>
+      <c r="B451" s="17"/>
       <c r="C451" s="14" t="s">
         <v>416</v>
       </c>
       <c r="D451" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E451" s="17"/>
+      <c r="E451" s="18"/>
       <c r="F451"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="15">
+      <c r="A452" s="17">
         <v>54</v>
       </c>
-      <c r="B452" s="15" t="s">
+      <c r="B452" s="17" t="s">
         <v>417</v>
       </c>
       <c r="C452" s="14" t="s">
@@ -8122,7 +8145,7 @@
       <c r="D452" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E452" s="16" t="s">
+      <c r="E452" s="22" t="s">
         <v>418</v>
       </c>
       <c r="F452" t="s">
@@ -8130,203 +8153,147 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="15"/>
-      <c r="B453" s="15"/>
+      <c r="A453" s="17"/>
+      <c r="B453" s="17"/>
       <c r="C453" s="14" t="s">
         <v>383</v>
       </c>
       <c r="D453" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E453" s="16"/>
+      <c r="E453" s="22"/>
       <c r="F453"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="15"/>
-      <c r="B454" s="15"/>
+      <c r="A454" s="17"/>
+      <c r="B454" s="17"/>
       <c r="C454" s="14" t="s">
         <v>387</v>
       </c>
       <c r="D454" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E454" s="16"/>
+      <c r="E454" s="22"/>
       <c r="F454"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="15"/>
-      <c r="B455" s="15"/>
+      <c r="A455" s="17"/>
+      <c r="B455" s="17"/>
       <c r="C455" s="14" t="s">
         <v>389</v>
       </c>
       <c r="D455" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E455" s="16"/>
+      <c r="E455" s="22"/>
       <c r="F455"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="15"/>
-      <c r="B456" s="15"/>
+      <c r="A456" s="17"/>
+      <c r="B456" s="17"/>
       <c r="C456" s="14" t="s">
         <v>390</v>
       </c>
       <c r="D456" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E456" s="16"/>
+      <c r="E456" s="22"/>
       <c r="F456"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="15"/>
-      <c r="B457" s="15"/>
+      <c r="A457" s="17"/>
+      <c r="B457" s="17"/>
       <c r="C457" s="14" t="s">
         <v>391</v>
       </c>
       <c r="D457" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E457" s="16"/>
+      <c r="E457" s="22"/>
       <c r="F457"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458"/>
-      <c r="B458"/>
-      <c r="C458"/>
-      <c r="D458"/>
-      <c r="E458"/>
-      <c r="F458"/>
+      <c r="A458" s="17">
+        <v>55</v>
+      </c>
+      <c r="B458" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C458" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D458" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E458" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="F458" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459"/>
-      <c r="B459"/>
-      <c r="C459"/>
-      <c r="D459"/>
-      <c r="E459"/>
+      <c r="A459" s="17"/>
+      <c r="B459" s="17"/>
+      <c r="C459" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D459" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E459" s="22"/>
       <c r="F459"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460"/>
-      <c r="B460"/>
-      <c r="C460"/>
-      <c r="D460"/>
-      <c r="E460"/>
+      <c r="A460" s="17"/>
+      <c r="B460" s="17"/>
+      <c r="C460" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D460" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E460" s="22"/>
       <c r="F460"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461"/>
-      <c r="B461"/>
-      <c r="C461"/>
-      <c r="D461"/>
-      <c r="E461"/>
-      <c r="F461"/>
-    </row>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="A391:A398"/>
-    <mergeCell ref="B391:B398"/>
-    <mergeCell ref="E391:E398"/>
-    <mergeCell ref="A283:A289"/>
-    <mergeCell ref="B283:B289"/>
-    <mergeCell ref="E283:E289"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="A149:A156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="A160:A170"/>
-    <mergeCell ref="A171:A180"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A77:A87"/>
-    <mergeCell ref="A88:A96"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="B149:B156"/>
-    <mergeCell ref="E149:E156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="B160:B170"/>
-    <mergeCell ref="E160:E170"/>
-    <mergeCell ref="B171:B180"/>
-    <mergeCell ref="E171:E178"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="B124:B130"/>
-    <mergeCell ref="E124:E130"/>
-    <mergeCell ref="B131:B138"/>
-    <mergeCell ref="E131:E138"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="E139:E148"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="B77:B87"/>
-    <mergeCell ref="E77:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="E88:E95"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="B61:B67"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="E68:E76"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="E45:E52"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="E10:E18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A266:A275"/>
-    <mergeCell ref="B266:B275"/>
-    <mergeCell ref="E266:E275"/>
-    <mergeCell ref="A276:A282"/>
-    <mergeCell ref="B276:B282"/>
-    <mergeCell ref="E276:E282"/>
-    <mergeCell ref="A248:A255"/>
-    <mergeCell ref="B248:B255"/>
-    <mergeCell ref="E248:E255"/>
-    <mergeCell ref="A256:A265"/>
-    <mergeCell ref="B256:B265"/>
-    <mergeCell ref="E256:E265"/>
-    <mergeCell ref="A230:A238"/>
-    <mergeCell ref="B230:B238"/>
-    <mergeCell ref="E230:E238"/>
-    <mergeCell ref="A239:A247"/>
-    <mergeCell ref="B239:B247"/>
-    <mergeCell ref="E239:E247"/>
-    <mergeCell ref="A214:A222"/>
-    <mergeCell ref="B214:B222"/>
-    <mergeCell ref="E214:E222"/>
-    <mergeCell ref="A223:A229"/>
-    <mergeCell ref="B223:B229"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="A197:A205"/>
-    <mergeCell ref="B197:B205"/>
-    <mergeCell ref="E197:E205"/>
-    <mergeCell ref="A206:A213"/>
-    <mergeCell ref="B206:B213"/>
-    <mergeCell ref="E206:E213"/>
+  <mergeCells count="164">
+    <mergeCell ref="A458:A460"/>
+    <mergeCell ref="B458:B460"/>
+    <mergeCell ref="E458:E460"/>
+    <mergeCell ref="A452:A457"/>
+    <mergeCell ref="B452:B457"/>
+    <mergeCell ref="E452:E457"/>
+    <mergeCell ref="A418:A426"/>
+    <mergeCell ref="B418:B426"/>
+    <mergeCell ref="E418:E426"/>
+    <mergeCell ref="A427:A435"/>
+    <mergeCell ref="B427:B435"/>
+    <mergeCell ref="E427:E435"/>
+    <mergeCell ref="A436:A451"/>
+    <mergeCell ref="B436:B451"/>
+    <mergeCell ref="E436:E451"/>
+    <mergeCell ref="A399:A407"/>
+    <mergeCell ref="B399:B407"/>
+    <mergeCell ref="E399:E407"/>
+    <mergeCell ref="A408:A417"/>
+    <mergeCell ref="B408:B417"/>
+    <mergeCell ref="E408:E417"/>
+    <mergeCell ref="B290:B298"/>
+    <mergeCell ref="A290:A298"/>
+    <mergeCell ref="E290:E298"/>
+    <mergeCell ref="A370:A380"/>
+    <mergeCell ref="B370:B380"/>
+    <mergeCell ref="E370:E380"/>
+    <mergeCell ref="A381:A390"/>
+    <mergeCell ref="B381:B390"/>
+    <mergeCell ref="E381:E390"/>
+    <mergeCell ref="B361:B369"/>
+    <mergeCell ref="A361:A369"/>
+    <mergeCell ref="E361:E369"/>
+    <mergeCell ref="B344:B352"/>
+    <mergeCell ref="A344:A352"/>
+    <mergeCell ref="E344:E352"/>
     <mergeCell ref="B353:B360"/>
     <mergeCell ref="A353:A360"/>
     <mergeCell ref="E353:E360"/>
@@ -8351,39 +8318,110 @@
     <mergeCell ref="B299:B309"/>
     <mergeCell ref="A299:A309"/>
     <mergeCell ref="E299:E309"/>
-    <mergeCell ref="A399:A407"/>
-    <mergeCell ref="B399:B407"/>
-    <mergeCell ref="E399:E407"/>
-    <mergeCell ref="A408:A417"/>
-    <mergeCell ref="B408:B417"/>
-    <mergeCell ref="E408:E417"/>
-    <mergeCell ref="B290:B298"/>
-    <mergeCell ref="A290:A298"/>
-    <mergeCell ref="E290:E298"/>
-    <mergeCell ref="A370:A380"/>
-    <mergeCell ref="B370:B380"/>
-    <mergeCell ref="E370:E380"/>
-    <mergeCell ref="A381:A390"/>
-    <mergeCell ref="B381:B390"/>
-    <mergeCell ref="E381:E390"/>
-    <mergeCell ref="B361:B369"/>
-    <mergeCell ref="A361:A369"/>
-    <mergeCell ref="E361:E369"/>
-    <mergeCell ref="B344:B352"/>
-    <mergeCell ref="A344:A352"/>
-    <mergeCell ref="E344:E352"/>
-    <mergeCell ref="A452:A457"/>
-    <mergeCell ref="B452:B457"/>
-    <mergeCell ref="E452:E457"/>
-    <mergeCell ref="A418:A426"/>
-    <mergeCell ref="B418:B426"/>
-    <mergeCell ref="E418:E426"/>
-    <mergeCell ref="A427:A435"/>
-    <mergeCell ref="B427:B435"/>
-    <mergeCell ref="E427:E435"/>
-    <mergeCell ref="A436:A451"/>
-    <mergeCell ref="B436:B451"/>
-    <mergeCell ref="E436:E451"/>
+    <mergeCell ref="A214:A222"/>
+    <mergeCell ref="B214:B222"/>
+    <mergeCell ref="E214:E222"/>
+    <mergeCell ref="A223:A229"/>
+    <mergeCell ref="B223:B229"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="A197:A205"/>
+    <mergeCell ref="B197:B205"/>
+    <mergeCell ref="E197:E205"/>
+    <mergeCell ref="A206:A213"/>
+    <mergeCell ref="B206:B213"/>
+    <mergeCell ref="E206:E213"/>
+    <mergeCell ref="E248:E255"/>
+    <mergeCell ref="A256:A265"/>
+    <mergeCell ref="B256:B265"/>
+    <mergeCell ref="E256:E265"/>
+    <mergeCell ref="A230:A238"/>
+    <mergeCell ref="B230:B238"/>
+    <mergeCell ref="E230:E238"/>
+    <mergeCell ref="A239:A247"/>
+    <mergeCell ref="B239:B247"/>
+    <mergeCell ref="E239:E247"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="E10:E18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="E88:E95"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="B61:B67"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="E68:E76"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="E45:E52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="E149:E156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="E124:E130"/>
+    <mergeCell ref="B131:B138"/>
+    <mergeCell ref="E131:E138"/>
+    <mergeCell ref="B139:B148"/>
+    <mergeCell ref="E139:E148"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="B77:B87"/>
+    <mergeCell ref="E77:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A87"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="A391:A398"/>
+    <mergeCell ref="B391:B398"/>
+    <mergeCell ref="E391:E398"/>
+    <mergeCell ref="A283:A289"/>
+    <mergeCell ref="B283:B289"/>
+    <mergeCell ref="E283:E289"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="A149:A156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A160:A170"/>
+    <mergeCell ref="A171:A180"/>
+    <mergeCell ref="B160:B170"/>
+    <mergeCell ref="E160:E170"/>
+    <mergeCell ref="B171:B180"/>
+    <mergeCell ref="E171:E178"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="A266:A275"/>
+    <mergeCell ref="B266:B275"/>
+    <mergeCell ref="E266:E275"/>
+    <mergeCell ref="A276:A282"/>
+    <mergeCell ref="B276:B282"/>
+    <mergeCell ref="E276:E282"/>
+    <mergeCell ref="A248:A255"/>
+    <mergeCell ref="B248:B255"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
